--- a/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.95217447470151</v>
+        <v>21.9521744747015</v>
       </c>
       <c r="C2">
-        <v>19.47810166150331</v>
+        <v>19.47810166150347</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.457847201779609</v>
+        <v>3.457847201779543</v>
       </c>
       <c r="F2">
-        <v>35.83694572521055</v>
+        <v>35.83694572521058</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>28.3323971006737</v>
       </c>
       <c r="I2">
-        <v>11.86775002176561</v>
+        <v>11.86775002176549</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.721855223082979</v>
+        <v>7.721855223083081</v>
       </c>
       <c r="L2">
-        <v>14.93119607537291</v>
+        <v>14.93119607537297</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.36580008539351</v>
+        <v>20.36580008539346</v>
       </c>
       <c r="C3">
-        <v>18.04413683893014</v>
+        <v>18.0441368389302</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.42568371011384</v>
+        <v>3.425683710113844</v>
       </c>
       <c r="F3">
-        <v>33.58478707959696</v>
+        <v>33.58478707959691</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>27.1234259147778</v>
+        <v>27.12342591477775</v>
       </c>
       <c r="I3">
-        <v>11.81755540621766</v>
+        <v>11.81755540621757</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.225363880485622</v>
+        <v>7.225363880485667</v>
       </c>
       <c r="L3">
-        <v>13.93991492686931</v>
+        <v>13.93991492686928</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.34465099761961</v>
+        <v>19.34465099761953</v>
       </c>
       <c r="C4">
-        <v>17.12358729411134</v>
+        <v>17.12358729411148</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.407840347639953</v>
+        <v>3.407840347639826</v>
       </c>
       <c r="F4">
-        <v>32.16117884675968</v>
+        <v>32.16117884675971</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>26.38502851257743</v>
+        <v>26.38502851257751</v>
       </c>
       <c r="I4">
-        <v>11.79443377001143</v>
+        <v>11.79443377001141</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.905603463142842</v>
+        <v>6.905603463142958</v>
       </c>
       <c r="L4">
-        <v>13.3024304354651</v>
+        <v>13.30243043546512</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.91641505031651</v>
+        <v>18.91641505031647</v>
       </c>
       <c r="C5">
-        <v>16.73810593407192</v>
+        <v>16.73810593407186</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.401009334792301</v>
+        <v>3.401009334792243</v>
       </c>
       <c r="F5">
-        <v>31.57105004772932</v>
+        <v>31.57105004772926</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>26.08522748257423</v>
       </c>
       <c r="I5">
-        <v>11.78678804740826</v>
+        <v>11.78678804740834</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.771512606946627</v>
+        <v>6.771512606946713</v>
       </c>
       <c r="L5">
-        <v>13.03528589841505</v>
+        <v>13.03528589841508</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.8445681042433</v>
+        <v>18.84456810424331</v>
       </c>
       <c r="C6">
-        <v>16.67346450027116</v>
+        <v>16.67346450027096</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.399900614685777</v>
+        <v>3.399900614685599</v>
       </c>
       <c r="F6">
-        <v>31.47246603936513</v>
+        <v>31.47246603936509</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>26.03551669280317</v>
+        <v>26.03551669280305</v>
       </c>
       <c r="I6">
-        <v>11.78562136024862</v>
+        <v>11.7856213602485</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.749017395288086</v>
+        <v>6.749017395288166</v>
       </c>
       <c r="L6">
-        <v>12.9904790041327</v>
+        <v>12.99047900413274</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.33892502217593</v>
+        <v>19.33892502217592</v>
       </c>
       <c r="C7">
-        <v>17.11843080373308</v>
+        <v>17.11843080373325</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.407746486639059</v>
+        <v>3.407746486638993</v>
       </c>
       <c r="F7">
-        <v>32.15326019993771</v>
+        <v>32.15326019993776</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>26.38098063756089</v>
+        <v>26.38098063756096</v>
       </c>
       <c r="I7">
-        <v>11.79432366533096</v>
+        <v>11.79432366533086</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.903810436687253</v>
+        <v>6.903810436687379</v>
       </c>
       <c r="L7">
-        <v>13.29885758570705</v>
+        <v>13.29885758570711</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.41480451967128</v>
+        <v>21.41480451967124</v>
       </c>
       <c r="C8">
-        <v>18.99182150572547</v>
+        <v>18.99182150572544</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.446336627251566</v>
+        <v>3.44633662725164</v>
       </c>
       <c r="F8">
-        <v>35.06897463904582</v>
+        <v>35.06897463904578</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27.91478434471158</v>
+        <v>27.91478434471151</v>
       </c>
       <c r="I8">
-        <v>11.84874529822146</v>
+        <v>11.84874529822156</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.553735547784118</v>
+        <v>7.553735547784102</v>
       </c>
       <c r="L8">
-        <v>14.59531200352422</v>
+        <v>14.59531200352419</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.12496450477651</v>
+        <v>25.12496450477649</v>
       </c>
       <c r="C9">
-        <v>22.3609903936143</v>
+        <v>22.36099039361426</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.539235443709725</v>
+        <v>3.539235443709591</v>
       </c>
       <c r="F9">
-        <v>40.45910172886874</v>
+        <v>40.45910172886871</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>30.95180692716095</v>
+        <v>30.95180692716096</v>
       </c>
       <c r="I9">
-        <v>12.02445901774845</v>
+        <v>12.02445901774842</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.712037649838161</v>
+        <v>8.712037649838184</v>
       </c>
       <c r="L9">
         <v>16.91510156528616</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.65162375066329</v>
+        <v>27.65162375066321</v>
       </c>
       <c r="C10">
-        <v>24.67211655066798</v>
+        <v>24.67211655066808</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.621626222373885</v>
+        <v>3.621626222374072</v>
       </c>
       <c r="F10">
-        <v>44.44283908691265</v>
+        <v>44.44283908691259</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>33.20442083273525</v>
+        <v>33.20442083273522</v>
       </c>
       <c r="I10">
-        <v>12.20796471037161</v>
+        <v>12.20796471037159</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.495891065147919</v>
+        <v>9.495891065147905</v>
       </c>
       <c r="L10">
-        <v>18.49416991468648</v>
+        <v>18.49416991468639</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.76322010017044</v>
+        <v>28.76322010017032</v>
       </c>
       <c r="C11">
-        <v>25.69352978517592</v>
+        <v>25.6935297851759</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.66324917622694</v>
+        <v>3.663249176226988</v>
       </c>
       <c r="F11">
-        <v>46.20506163725566</v>
+        <v>46.20506163725567</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>34.23653186433282</v>
+        <v>34.23653186433291</v>
       </c>
       <c r="I11">
-        <v>12.30647325736906</v>
+        <v>12.30647325736907</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.838931560210323</v>
+        <v>9.838931560210245</v>
       </c>
       <c r="L11">
-        <v>19.18817244585552</v>
+        <v>19.18817244585544</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.17924964523646</v>
+        <v>29.17924964523658</v>
       </c>
       <c r="C12">
-        <v>26.07657164428988</v>
+        <v>26.07657164428994</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.679722115947992</v>
+        <v>3.679722115948169</v>
       </c>
       <c r="F12">
-        <v>46.86575584852392</v>
+        <v>46.86575584852405</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>34.62880500342587</v>
+        <v>34.62880500342595</v>
       </c>
       <c r="I12">
-        <v>12.34625276456663</v>
+        <v>12.34625276456657</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.96698725095345</v>
+        <v>9.96698725095332</v>
       </c>
       <c r="L12">
-        <v>19.44776012853889</v>
+        <v>19.4477601285389</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.08985922280399</v>
+        <v>29.08985922280403</v>
       </c>
       <c r="C13">
-        <v>25.99423339831184</v>
+        <v>25.99423339831199</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.676140615008623</v>
+        <v>3.676140615008746</v>
       </c>
       <c r="F13">
-        <v>46.72374687609388</v>
+        <v>46.72374687609391</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>34.54425069561771</v>
+        <v>34.54425069561778</v>
       </c>
       <c r="I13">
-        <v>12.33756985997603</v>
+        <v>12.33756985997596</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.939488508547837</v>
+        <v>9.939488508547772</v>
       </c>
       <c r="L13">
-        <v>19.39199131355344</v>
+        <v>19.39199131355343</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.79754214530644</v>
+        <v>28.79754214530654</v>
       </c>
       <c r="C14">
-        <v>25.72511439800975</v>
+        <v>25.72511439801</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.664589404398436</v>
+        <v>3.664589404398497</v>
       </c>
       <c r="F14">
         <v>46.25954608355649</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34.26877301560315</v>
+        <v>34.26877301560312</v>
       </c>
       <c r="I14">
-        <v>12.30969433364299</v>
+        <v>12.30969433364289</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.849503148753737</v>
+        <v>9.849503148753739</v>
       </c>
       <c r="L14">
-        <v>19.20959155213418</v>
+        <v>19.20959155213422</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.61786740185779</v>
+        <v>28.61786740185788</v>
       </c>
       <c r="C15">
-        <v>25.55980165625305</v>
+        <v>25.55980165625301</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.657610454851005</v>
+        <v>3.657610454851001</v>
       </c>
       <c r="F15">
-        <v>45.97436774739529</v>
+        <v>45.97436774739532</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34.1002353152786</v>
+        <v>34.10023531527857</v>
       </c>
       <c r="I15">
-        <v>12.29295243996802</v>
+        <v>12.29295243996801</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.794147329632958</v>
+        <v>9.794147329632903</v>
       </c>
       <c r="L15">
         <v>19.09745677419011</v>
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.57826100596315</v>
+        <v>27.57826100596322</v>
       </c>
       <c r="C16">
-        <v>24.60480826480734</v>
+        <v>24.6048082648072</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.61899872304364</v>
+        <v>3.618998723043769</v>
       </c>
       <c r="F16">
-        <v>44.32671108101663</v>
+        <v>44.3267110810166</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33.13714736456366</v>
+        <v>33.13714736456358</v>
       </c>
       <c r="I16">
-        <v>12.20185528341961</v>
+        <v>12.20185528341958</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.473208371731813</v>
+        <v>9.473208371731818</v>
       </c>
       <c r="L16">
-        <v>18.44834880234894</v>
+        <v>18.44834880234895</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93116630282168</v>
+        <v>26.93116630282167</v>
       </c>
       <c r="C17">
-        <v>24.01165519777992</v>
+        <v>24.01165519777979</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.596447143419292</v>
+        <v>3.596447143419113</v>
       </c>
       <c r="F17">
-        <v>43.30344358077281</v>
+        <v>43.30344358077272</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>32.54843908005812</v>
+        <v>32.54843908005808</v>
       </c>
       <c r="I17">
         <v>12.15002984088147</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.272921892894567</v>
+        <v>9.272921892894583</v>
       </c>
       <c r="L17">
-        <v>18.04409853886531</v>
+        <v>18.04409853886533</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.55538137214386</v>
+        <v>26.5553813721438</v>
       </c>
       <c r="C18">
-        <v>23.66763391732757</v>
+        <v>23.6676339173275</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.583857772846107</v>
+        <v>3.583857772845923</v>
       </c>
       <c r="F18">
-        <v>42.71011240159077</v>
+        <v>42.71011240159064</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32.21049484864032</v>
+        <v>32.21049484864015</v>
       </c>
       <c r="I18">
-        <v>12.1216146632048</v>
+        <v>12.12161466320474</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.156441223172822</v>
+        <v>9.156441223172854</v>
       </c>
       <c r="L18">
-        <v>17.80927566539274</v>
+        <v>17.80927566539276</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.42751516151799</v>
+        <v>26.42751516151775</v>
       </c>
       <c r="C19">
-        <v>23.5506482193409</v>
+        <v>23.55064821934101</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.579657674113053</v>
+        <v>3.57965767411293</v>
       </c>
       <c r="F19">
-        <v>42.50838428622434</v>
+        <v>42.50838428622417</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>32.09617780736377</v>
+        <v>32.09617780736369</v>
       </c>
       <c r="I19">
-        <v>12.11222423857353</v>
+        <v>12.11222423857356</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.116780013784066</v>
+        <v>9.116780013784155</v>
       </c>
       <c r="L19">
-        <v>17.72936428523428</v>
+        <v>17.72936428523419</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.00041895952224</v>
+        <v>27.00041895952231</v>
       </c>
       <c r="C20">
-        <v>24.07508910618697</v>
+        <v>24.07508910618702</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.598807537652137</v>
+        <v>3.598807537652188</v>
       </c>
       <c r="F20">
-        <v>43.41286236073278</v>
+        <v>43.41286236073292</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>32.61103696596502</v>
+        <v>32.61103696596525</v>
       </c>
       <c r="I20">
-        <v>12.15540039654394</v>
+        <v>12.15540039654398</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.294374649776689</v>
+        <v>9.294374649776664</v>
       </c>
       <c r="L20">
         <v>18.08736872814713</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.88353133898761</v>
+        <v>28.88353133898771</v>
       </c>
       <c r="C21">
-        <v>25.80425790191151</v>
+        <v>25.80425790191165</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.667961919691404</v>
+        <v>3.667961919691458</v>
       </c>
       <c r="F21">
-        <v>46.39606729087738</v>
+        <v>46.3960672908775</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>34.34964487268451</v>
+        <v>34.34964487268455</v>
       </c>
       <c r="I21">
-        <v>12.31781209148761</v>
+        <v>12.31781209148753</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.875983257603608</v>
+        <v>9.8759832576036</v>
       </c>
       <c r="L21">
-        <v>19.26325158480098</v>
+        <v>19.26325158480106</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08595618438125</v>
+        <v>30.0859561843811</v>
       </c>
       <c r="C22">
-        <v>26.91287025958691</v>
+        <v>26.91287025958703</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.717378084362141</v>
+        <v>3.717378084362075</v>
       </c>
       <c r="F22">
-        <v>48.3075547292086</v>
+        <v>48.30755472920858</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35.49456857331487</v>
+        <v>35.49456857331492</v>
       </c>
       <c r="I22">
-        <v>12.43857525560166</v>
+        <v>12.43857525560172</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.24539515176459</v>
+        <v>10.24539515176464</v>
       </c>
       <c r="L22">
-        <v>20.01318035954638</v>
+        <v>20.01318035954635</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.44659172176306</v>
+        <v>29.44659172176295</v>
       </c>
       <c r="C23">
-        <v>26.32294033441995</v>
+        <v>26.32294033441992</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.690572180320768</v>
+        <v>3.690572180320709</v>
       </c>
       <c r="F23">
-        <v>47.29061685630479</v>
+        <v>47.29061685630464</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34.88254956079381</v>
+        <v>34.88254956079371</v>
       </c>
       <c r="I23">
-        <v>12.37266696570784</v>
+        <v>12.37266696570782</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.04917486891325</v>
+        <v>10.04917486891323</v>
       </c>
       <c r="L23">
-        <v>19.61452328682649</v>
+        <v>19.61452328682646</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.96912158841505</v>
+        <v>26.96912158841515</v>
       </c>
       <c r="C24">
-        <v>24.0464200514361</v>
+        <v>24.04642005143617</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>3.597739241042809</v>
       </c>
       <c r="F24">
-        <v>43.36340987603782</v>
+        <v>43.36340987603787</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>32.58273489328067</v>
       </c>
       <c r="I24">
-        <v>12.15296809329255</v>
+        <v>12.15296809329256</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.284680018693839</v>
+        <v>9.284680018693816</v>
       </c>
       <c r="L24">
-        <v>18.06781381525228</v>
+        <v>18.06781381525236</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.15789342242311</v>
+        <v>24.15789342242295</v>
       </c>
       <c r="C25">
-        <v>21.48009428558279</v>
+        <v>21.48009428558269</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.511928021238679</v>
+        <v>3.511928021238565</v>
       </c>
       <c r="F25">
-        <v>39.03602413202382</v>
+        <v>39.03602413202375</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>30.12703669726765</v>
+        <v>30.12703669726767</v>
       </c>
       <c r="I25">
-        <v>11.96834993877467</v>
+        <v>11.96834993877475</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.41078501643003</v>
+        <v>8.410785016430095</v>
       </c>
       <c r="L25">
-        <v>16.31038935775244</v>
+        <v>16.3103893577524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.9521744747015</v>
+        <v>21.95217447470151</v>
       </c>
       <c r="C2">
-        <v>19.47810166150347</v>
+        <v>19.47810166150331</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.457847201779543</v>
+        <v>3.457847201779609</v>
       </c>
       <c r="F2">
-        <v>35.83694572521058</v>
+        <v>35.83694572521055</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>28.3323971006737</v>
       </c>
       <c r="I2">
-        <v>11.86775002176549</v>
+        <v>11.86775002176561</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.721855223083081</v>
+        <v>7.721855223082979</v>
       </c>
       <c r="L2">
-        <v>14.93119607537297</v>
+        <v>14.93119607537291</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.36580008539346</v>
+        <v>20.36580008539351</v>
       </c>
       <c r="C3">
-        <v>18.0441368389302</v>
+        <v>18.04413683893014</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.425683710113844</v>
+        <v>3.42568371011384</v>
       </c>
       <c r="F3">
-        <v>33.58478707959691</v>
+        <v>33.58478707959696</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>27.12342591477775</v>
+        <v>27.1234259147778</v>
       </c>
       <c r="I3">
-        <v>11.81755540621757</v>
+        <v>11.81755540621766</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.225363880485667</v>
+        <v>7.225363880485622</v>
       </c>
       <c r="L3">
-        <v>13.93991492686928</v>
+        <v>13.93991492686931</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.34465099761953</v>
+        <v>19.34465099761961</v>
       </c>
       <c r="C4">
-        <v>17.12358729411148</v>
+        <v>17.12358729411134</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.407840347639826</v>
+        <v>3.407840347639953</v>
       </c>
       <c r="F4">
-        <v>32.16117884675971</v>
+        <v>32.16117884675968</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>26.38502851257751</v>
+        <v>26.38502851257743</v>
       </c>
       <c r="I4">
-        <v>11.79443377001141</v>
+        <v>11.79443377001143</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.905603463142958</v>
+        <v>6.905603463142842</v>
       </c>
       <c r="L4">
-        <v>13.30243043546512</v>
+        <v>13.3024304354651</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.91641505031647</v>
+        <v>18.91641505031651</v>
       </c>
       <c r="C5">
-        <v>16.73810593407186</v>
+        <v>16.73810593407192</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.401009334792243</v>
+        <v>3.401009334792301</v>
       </c>
       <c r="F5">
-        <v>31.57105004772926</v>
+        <v>31.57105004772932</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>26.08522748257423</v>
       </c>
       <c r="I5">
-        <v>11.78678804740834</v>
+        <v>11.78678804740826</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.771512606946713</v>
+        <v>6.771512606946627</v>
       </c>
       <c r="L5">
-        <v>13.03528589841508</v>
+        <v>13.03528589841505</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.84456810424331</v>
+        <v>18.8445681042433</v>
       </c>
       <c r="C6">
-        <v>16.67346450027096</v>
+        <v>16.67346450027116</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.399900614685599</v>
+        <v>3.399900614685777</v>
       </c>
       <c r="F6">
-        <v>31.47246603936509</v>
+        <v>31.47246603936513</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>26.03551669280305</v>
+        <v>26.03551669280317</v>
       </c>
       <c r="I6">
-        <v>11.7856213602485</v>
+        <v>11.78562136024862</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.749017395288166</v>
+        <v>6.749017395288086</v>
       </c>
       <c r="L6">
-        <v>12.99047900413274</v>
+        <v>12.9904790041327</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.33892502217592</v>
+        <v>19.33892502217593</v>
       </c>
       <c r="C7">
-        <v>17.11843080373325</v>
+        <v>17.11843080373308</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.407746486638993</v>
+        <v>3.407746486639059</v>
       </c>
       <c r="F7">
-        <v>32.15326019993776</v>
+        <v>32.15326019993771</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>26.38098063756096</v>
+        <v>26.38098063756089</v>
       </c>
       <c r="I7">
-        <v>11.79432366533086</v>
+        <v>11.79432366533096</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.903810436687379</v>
+        <v>6.903810436687253</v>
       </c>
       <c r="L7">
-        <v>13.29885758570711</v>
+        <v>13.29885758570705</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.41480451967124</v>
+        <v>21.41480451967128</v>
       </c>
       <c r="C8">
-        <v>18.99182150572544</v>
+        <v>18.99182150572547</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.44633662725164</v>
+        <v>3.446336627251566</v>
       </c>
       <c r="F8">
-        <v>35.06897463904578</v>
+        <v>35.06897463904582</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27.91478434471151</v>
+        <v>27.91478434471158</v>
       </c>
       <c r="I8">
-        <v>11.84874529822156</v>
+        <v>11.84874529822146</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.553735547784102</v>
+        <v>7.553735547784118</v>
       </c>
       <c r="L8">
-        <v>14.59531200352419</v>
+        <v>14.59531200352422</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.12496450477649</v>
+        <v>25.12496450477651</v>
       </c>
       <c r="C9">
-        <v>22.36099039361426</v>
+        <v>22.3609903936143</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.539235443709591</v>
+        <v>3.539235443709725</v>
       </c>
       <c r="F9">
-        <v>40.45910172886871</v>
+        <v>40.45910172886874</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>30.95180692716096</v>
+        <v>30.95180692716095</v>
       </c>
       <c r="I9">
-        <v>12.02445901774842</v>
+        <v>12.02445901774845</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.712037649838184</v>
+        <v>8.712037649838161</v>
       </c>
       <c r="L9">
         <v>16.91510156528616</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.65162375066321</v>
+        <v>27.65162375066329</v>
       </c>
       <c r="C10">
-        <v>24.67211655066808</v>
+        <v>24.67211655066798</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.621626222374072</v>
+        <v>3.621626222373885</v>
       </c>
       <c r="F10">
-        <v>44.44283908691259</v>
+        <v>44.44283908691265</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>33.20442083273522</v>
+        <v>33.20442083273525</v>
       </c>
       <c r="I10">
-        <v>12.20796471037159</v>
+        <v>12.20796471037161</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.495891065147905</v>
+        <v>9.495891065147919</v>
       </c>
       <c r="L10">
-        <v>18.49416991468639</v>
+        <v>18.49416991468648</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.76322010017032</v>
+        <v>28.76322010017044</v>
       </c>
       <c r="C11">
-        <v>25.6935297851759</v>
+        <v>25.69352978517592</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.663249176226988</v>
+        <v>3.66324917622694</v>
       </c>
       <c r="F11">
-        <v>46.20506163725567</v>
+        <v>46.20506163725566</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>34.23653186433291</v>
+        <v>34.23653186433282</v>
       </c>
       <c r="I11">
-        <v>12.30647325736907</v>
+        <v>12.30647325736906</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.838931560210245</v>
+        <v>9.838931560210323</v>
       </c>
       <c r="L11">
-        <v>19.18817244585544</v>
+        <v>19.18817244585552</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.17924964523658</v>
+        <v>29.17924964523646</v>
       </c>
       <c r="C12">
-        <v>26.07657164428994</v>
+        <v>26.07657164428988</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.679722115948169</v>
+        <v>3.679722115947992</v>
       </c>
       <c r="F12">
-        <v>46.86575584852405</v>
+        <v>46.86575584852392</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>34.62880500342595</v>
+        <v>34.62880500342587</v>
       </c>
       <c r="I12">
-        <v>12.34625276456657</v>
+        <v>12.34625276456663</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.96698725095332</v>
+        <v>9.96698725095345</v>
       </c>
       <c r="L12">
-        <v>19.4477601285389</v>
+        <v>19.44776012853889</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.08985922280403</v>
+        <v>29.08985922280399</v>
       </c>
       <c r="C13">
-        <v>25.99423339831199</v>
+        <v>25.99423339831184</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.676140615008746</v>
+        <v>3.676140615008623</v>
       </c>
       <c r="F13">
-        <v>46.72374687609391</v>
+        <v>46.72374687609388</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>34.54425069561778</v>
+        <v>34.54425069561771</v>
       </c>
       <c r="I13">
-        <v>12.33756985997596</v>
+        <v>12.33756985997603</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.939488508547772</v>
+        <v>9.939488508547837</v>
       </c>
       <c r="L13">
-        <v>19.39199131355343</v>
+        <v>19.39199131355344</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.79754214530654</v>
+        <v>28.79754214530644</v>
       </c>
       <c r="C14">
-        <v>25.72511439801</v>
+        <v>25.72511439800975</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.664589404398497</v>
+        <v>3.664589404398436</v>
       </c>
       <c r="F14">
         <v>46.25954608355649</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34.26877301560312</v>
+        <v>34.26877301560315</v>
       </c>
       <c r="I14">
-        <v>12.30969433364289</v>
+        <v>12.30969433364299</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.849503148753739</v>
+        <v>9.849503148753737</v>
       </c>
       <c r="L14">
-        <v>19.20959155213422</v>
+        <v>19.20959155213418</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.61786740185788</v>
+        <v>28.61786740185779</v>
       </c>
       <c r="C15">
-        <v>25.55980165625301</v>
+        <v>25.55980165625305</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.657610454851001</v>
+        <v>3.657610454851005</v>
       </c>
       <c r="F15">
-        <v>45.97436774739532</v>
+        <v>45.97436774739529</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34.10023531527857</v>
+        <v>34.1002353152786</v>
       </c>
       <c r="I15">
-        <v>12.29295243996801</v>
+        <v>12.29295243996802</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.794147329632903</v>
+        <v>9.794147329632958</v>
       </c>
       <c r="L15">
         <v>19.09745677419011</v>
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.57826100596322</v>
+        <v>27.57826100596315</v>
       </c>
       <c r="C16">
-        <v>24.6048082648072</v>
+        <v>24.60480826480734</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.618998723043769</v>
+        <v>3.61899872304364</v>
       </c>
       <c r="F16">
-        <v>44.3267110810166</v>
+        <v>44.32671108101663</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33.13714736456358</v>
+        <v>33.13714736456366</v>
       </c>
       <c r="I16">
-        <v>12.20185528341958</v>
+        <v>12.20185528341961</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.473208371731818</v>
+        <v>9.473208371731813</v>
       </c>
       <c r="L16">
-        <v>18.44834880234895</v>
+        <v>18.44834880234894</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93116630282167</v>
+        <v>26.93116630282168</v>
       </c>
       <c r="C17">
-        <v>24.01165519777979</v>
+        <v>24.01165519777992</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.596447143419113</v>
+        <v>3.596447143419292</v>
       </c>
       <c r="F17">
-        <v>43.30344358077272</v>
+        <v>43.30344358077281</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>32.54843908005808</v>
+        <v>32.54843908005812</v>
       </c>
       <c r="I17">
         <v>12.15002984088147</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.272921892894583</v>
+        <v>9.272921892894567</v>
       </c>
       <c r="L17">
-        <v>18.04409853886533</v>
+        <v>18.04409853886531</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.5553813721438</v>
+        <v>26.55538137214386</v>
       </c>
       <c r="C18">
-        <v>23.6676339173275</v>
+        <v>23.66763391732757</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.583857772845923</v>
+        <v>3.583857772846107</v>
       </c>
       <c r="F18">
-        <v>42.71011240159064</v>
+        <v>42.71011240159077</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32.21049484864015</v>
+        <v>32.21049484864032</v>
       </c>
       <c r="I18">
-        <v>12.12161466320474</v>
+        <v>12.1216146632048</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.156441223172854</v>
+        <v>9.156441223172822</v>
       </c>
       <c r="L18">
-        <v>17.80927566539276</v>
+        <v>17.80927566539274</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.42751516151775</v>
+        <v>26.42751516151799</v>
       </c>
       <c r="C19">
-        <v>23.55064821934101</v>
+        <v>23.5506482193409</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.57965767411293</v>
+        <v>3.579657674113053</v>
       </c>
       <c r="F19">
-        <v>42.50838428622417</v>
+        <v>42.50838428622434</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>32.09617780736369</v>
+        <v>32.09617780736377</v>
       </c>
       <c r="I19">
-        <v>12.11222423857356</v>
+        <v>12.11222423857353</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.116780013784155</v>
+        <v>9.116780013784066</v>
       </c>
       <c r="L19">
-        <v>17.72936428523419</v>
+        <v>17.72936428523428</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.00041895952231</v>
+        <v>27.00041895952224</v>
       </c>
       <c r="C20">
-        <v>24.07508910618702</v>
+        <v>24.07508910618697</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.598807537652188</v>
+        <v>3.598807537652137</v>
       </c>
       <c r="F20">
-        <v>43.41286236073292</v>
+        <v>43.41286236073278</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>32.61103696596525</v>
+        <v>32.61103696596502</v>
       </c>
       <c r="I20">
-        <v>12.15540039654398</v>
+        <v>12.15540039654394</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.294374649776664</v>
+        <v>9.294374649776689</v>
       </c>
       <c r="L20">
         <v>18.08736872814713</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.88353133898771</v>
+        <v>28.88353133898761</v>
       </c>
       <c r="C21">
-        <v>25.80425790191165</v>
+        <v>25.80425790191151</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.667961919691458</v>
+        <v>3.667961919691404</v>
       </c>
       <c r="F21">
-        <v>46.3960672908775</v>
+        <v>46.39606729087738</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>34.34964487268455</v>
+        <v>34.34964487268451</v>
       </c>
       <c r="I21">
-        <v>12.31781209148753</v>
+        <v>12.31781209148761</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.8759832576036</v>
+        <v>9.875983257603608</v>
       </c>
       <c r="L21">
-        <v>19.26325158480106</v>
+        <v>19.26325158480098</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.0859561843811</v>
+        <v>30.08595618438125</v>
       </c>
       <c r="C22">
-        <v>26.91287025958703</v>
+        <v>26.91287025958691</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.717378084362075</v>
+        <v>3.717378084362141</v>
       </c>
       <c r="F22">
-        <v>48.30755472920858</v>
+        <v>48.3075547292086</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35.49456857331492</v>
+        <v>35.49456857331487</v>
       </c>
       <c r="I22">
-        <v>12.43857525560172</v>
+        <v>12.43857525560166</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.24539515176464</v>
+        <v>10.24539515176459</v>
       </c>
       <c r="L22">
-        <v>20.01318035954635</v>
+        <v>20.01318035954638</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.44659172176295</v>
+        <v>29.44659172176306</v>
       </c>
       <c r="C23">
-        <v>26.32294033441992</v>
+        <v>26.32294033441995</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.690572180320709</v>
+        <v>3.690572180320768</v>
       </c>
       <c r="F23">
-        <v>47.29061685630464</v>
+        <v>47.29061685630479</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34.88254956079371</v>
+        <v>34.88254956079381</v>
       </c>
       <c r="I23">
-        <v>12.37266696570782</v>
+        <v>12.37266696570784</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.04917486891323</v>
+        <v>10.04917486891325</v>
       </c>
       <c r="L23">
-        <v>19.61452328682646</v>
+        <v>19.61452328682649</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.96912158841515</v>
+        <v>26.96912158841505</v>
       </c>
       <c r="C24">
-        <v>24.04642005143617</v>
+        <v>24.0464200514361</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>3.597739241042809</v>
       </c>
       <c r="F24">
-        <v>43.36340987603787</v>
+        <v>43.36340987603782</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>32.58273489328067</v>
       </c>
       <c r="I24">
-        <v>12.15296809329256</v>
+        <v>12.15296809329255</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.284680018693816</v>
+        <v>9.284680018693839</v>
       </c>
       <c r="L24">
-        <v>18.06781381525236</v>
+        <v>18.06781381525228</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.15789342242295</v>
+        <v>24.15789342242311</v>
       </c>
       <c r="C25">
-        <v>21.48009428558269</v>
+        <v>21.48009428558279</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.511928021238565</v>
+        <v>3.511928021238679</v>
       </c>
       <c r="F25">
-        <v>39.03602413202375</v>
+        <v>39.03602413202382</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>30.12703669726767</v>
+        <v>30.12703669726765</v>
       </c>
       <c r="I25">
-        <v>11.96834993877475</v>
+        <v>11.96834993877467</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.410785016430095</v>
+        <v>8.41078501643003</v>
       </c>
       <c r="L25">
-        <v>16.3103893577524</v>
+        <v>16.31038935775244</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.95217447470151</v>
+        <v>21.81784645105703</v>
       </c>
       <c r="C2">
-        <v>19.47810166150331</v>
+        <v>19.32060075449315</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.457847201779609</v>
+        <v>3.199306792314375</v>
       </c>
       <c r="F2">
-        <v>35.83694572521055</v>
+        <v>35.84339836036954</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.062042315947739</v>
       </c>
       <c r="H2">
-        <v>28.3323971006737</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.86775002176561</v>
+        <v>28.51885223820061</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.06305229943796</v>
       </c>
       <c r="K2">
-        <v>7.721855223082979</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>14.93119607537291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>7.740872231136915</v>
+      </c>
+      <c r="M2">
+        <v>14.86085854952746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.36580008539351</v>
+        <v>20.23818678389028</v>
       </c>
       <c r="C3">
-        <v>18.04413683893014</v>
+        <v>17.89552777578486</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.42568371011384</v>
+        <v>3.165583716565687</v>
       </c>
       <c r="F3">
-        <v>33.58478707959696</v>
+        <v>33.60628200809499</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.075161260529467</v>
       </c>
       <c r="H3">
-        <v>27.1234259147778</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.81755540621766</v>
+        <v>27.33762981507017</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.0214123049815</v>
       </c>
       <c r="K3">
-        <v>7.225363880485622</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>13.93991492686931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>7.245851454845796</v>
+      </c>
+      <c r="M3">
+        <v>13.87088671368922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.34465099761961</v>
+        <v>19.2213720349221</v>
       </c>
       <c r="C4">
-        <v>17.12358729411134</v>
+        <v>16.98078754617151</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.407840347639953</v>
+        <v>3.146700829620292</v>
       </c>
       <c r="F4">
-        <v>32.16117884675968</v>
+        <v>32.19283519624634</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.083351829316854</v>
       </c>
       <c r="H4">
-        <v>26.38502851257743</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>11.79443377001143</v>
+        <v>26.61735195234943</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.00340015139889</v>
       </c>
       <c r="K4">
-        <v>6.905603463142842</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.3024304354651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.927094325027785</v>
+      </c>
+      <c r="M4">
+        <v>13.23410796360682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.91641505031651</v>
+        <v>18.79496199400392</v>
       </c>
       <c r="C5">
-        <v>16.73810593407192</v>
+        <v>16.59777137113312</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.401009334792301</v>
+        <v>3.139427534411503</v>
       </c>
       <c r="F5">
-        <v>31.57105004772932</v>
+        <v>31.60709370122735</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.086727945506533</v>
       </c>
       <c r="H5">
-        <v>26.08522748257423</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.78678804740826</v>
+        <v>26.32519695094281</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.9978052542319</v>
       </c>
       <c r="K5">
-        <v>6.771512606946627</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.03528589841505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.793439724248613</v>
+      </c>
+      <c r="M5">
+        <v>12.96722528107604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.8445681042433</v>
+        <v>18.72342203532462</v>
       </c>
       <c r="C6">
-        <v>16.67346450027116</v>
+        <v>16.53354549801075</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.399900614685777</v>
+        <v>3.138244299717201</v>
       </c>
       <c r="F6">
-        <v>31.47246603936513</v>
+        <v>31.50925348368023</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.08729098459172</v>
       </c>
       <c r="H6">
-        <v>26.03551669280317</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.78562136024862</v>
+        <v>26.27677124178642</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.99697734642625</v>
       </c>
       <c r="K6">
-        <v>6.749017395288086</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12.9904790041327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.771018676648359</v>
+      </c>
+      <c r="M6">
+        <v>12.92246026807193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.33892502217593</v>
+        <v>19.21567043408226</v>
       </c>
       <c r="C7">
-        <v>17.11843080373308</v>
+        <v>16.97566389217585</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.407746486639059</v>
+        <v>3.146601076989131</v>
       </c>
       <c r="F7">
-        <v>32.15326019993771</v>
+        <v>32.18497470226573</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.083397199927868</v>
       </c>
       <c r="H7">
-        <v>26.38098063756089</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11.79432366533096</v>
+        <v>26.61340614897218</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.00331782566693</v>
       </c>
       <c r="K7">
-        <v>6.903810436687253</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.29885758570705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.925307068024105</v>
+      </c>
+      <c r="M7">
+        <v>13.23053875145192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.41480451967128</v>
+        <v>21.2827516451312</v>
       </c>
       <c r="C8">
-        <v>18.99182150572547</v>
+        <v>18.8373196350261</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.446336627251566</v>
+        <v>3.187276694913137</v>
       </c>
       <c r="F8">
-        <v>35.06897463904582</v>
+        <v>35.08043009047544</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.066540346908175</v>
       </c>
       <c r="H8">
-        <v>27.91478434471158</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11.84874529822146</v>
+        <v>28.11057818436019</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.04702974950596</v>
       </c>
       <c r="K8">
-        <v>7.553735547784118</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14.59531200352422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>7.573240007764932</v>
+      </c>
+      <c r="M8">
+        <v>14.52544589556001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.12496450477651</v>
+        <v>24.97705314095592</v>
       </c>
       <c r="C9">
-        <v>22.3609903936143</v>
+        <v>22.18583990108587</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.539235443709725</v>
+        <v>3.283518454572679</v>
       </c>
       <c r="F9">
-        <v>40.45910172886874</v>
+        <v>40.43755645772161</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.03433876249525</v>
       </c>
       <c r="H9">
-        <v>30.95180692716095</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.02445901774845</v>
+        <v>31.08455836634621</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.20038876191916</v>
       </c>
       <c r="K9">
-        <v>8.712037649838161</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>16.91510156528616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>8.728346472565676</v>
+      </c>
+      <c r="M9">
+        <v>16.84143100186174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.65162375066329</v>
+        <v>27.49250082633348</v>
       </c>
       <c r="C10">
-        <v>24.67211655066798</v>
+        <v>24.48267406588337</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.621626222373885</v>
+        <v>3.367757712513061</v>
       </c>
       <c r="F10">
-        <v>44.44283908691265</v>
+        <v>44.37242894501968</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.010847666006466</v>
       </c>
       <c r="H10">
-        <v>33.20442083273525</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12.20796471037161</v>
+        <v>33.29618667315107</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.36632432043568</v>
       </c>
       <c r="K10">
-        <v>9.495891065147919</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>18.49416991468648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>9.510179198983296</v>
+      </c>
+      <c r="M10">
+        <v>18.41719059352325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.76322010017044</v>
+        <v>28.59898791550752</v>
       </c>
       <c r="C11">
-        <v>25.69352978517592</v>
+        <v>25.49764254542312</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.66324917622694</v>
+        <v>3.410048831881333</v>
       </c>
       <c r="F11">
-        <v>46.20506163725566</v>
+        <v>46.1266175499722</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.000102330758189</v>
       </c>
       <c r="H11">
-        <v>34.23653186433282</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>12.30647325736906</v>
+        <v>34.31071764679533</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.45651144738758</v>
       </c>
       <c r="K11">
-        <v>9.838931560210323</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>19.18817244585552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>9.852349694972633</v>
+      </c>
+      <c r="M11">
+        <v>19.10954948752003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.17924964523646</v>
+        <v>29.01307082835449</v>
       </c>
       <c r="C12">
-        <v>26.07657164428988</v>
+        <v>25.87823902887772</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.679722115947992</v>
+        <v>3.426745776727596</v>
       </c>
       <c r="F12">
-        <v>46.86575584852392</v>
+        <v>46.78430426047788</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.996015327628932</v>
       </c>
       <c r="H12">
-        <v>34.62880500342587</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>12.34625276456663</v>
+        <v>34.69647336454692</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.49308489071185</v>
       </c>
       <c r="K12">
-        <v>9.96698725095345</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>19.44776012853889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>9.980081131688795</v>
+      </c>
+      <c r="M12">
+        <v>19.36849124089279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.08985922280399</v>
+        <v>28.92410036709126</v>
       </c>
       <c r="C13">
-        <v>25.99423339831184</v>
+        <v>25.79642788870539</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.676140615008623</v>
+        <v>3.423117398040328</v>
       </c>
       <c r="F13">
-        <v>46.72374687609388</v>
+        <v>46.64294175345857</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.99689650490824</v>
       </c>
       <c r="H13">
-        <v>34.54425069561771</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>12.33756985997603</v>
+        <v>34.61331674588705</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.485095048007</v>
       </c>
       <c r="K13">
-        <v>9.939488508547837</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>19.39199131355344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>9.95265202386989</v>
+      </c>
+      <c r="M13">
+        <v>19.31286265575095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.79754214530644</v>
+        <v>28.63315011596843</v>
       </c>
       <c r="C14">
-        <v>25.72511439800975</v>
+        <v>25.52902615670989</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.664589404398436</v>
+        <v>3.411408097415176</v>
       </c>
       <c r="F14">
-        <v>46.25954608355649</v>
+        <v>46.18085397513104</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.999766510937792</v>
       </c>
       <c r="H14">
-        <v>34.26877301560315</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>12.30969433364299</v>
+        <v>34.34241989762221</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.4594699080593</v>
       </c>
       <c r="K14">
-        <v>9.849503148753737</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>19.20959155213418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>9.862894514175165</v>
+      </c>
+      <c r="M14">
+        <v>19.13091594943761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.61786740185779</v>
+        <v>28.45431069837253</v>
       </c>
       <c r="C15">
-        <v>25.55980165625305</v>
+        <v>25.36476422856207</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.657610454851005</v>
+        <v>3.404328396900971</v>
       </c>
       <c r="F15">
-        <v>45.97436774739529</v>
+        <v>45.89697391073435</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.001521822447991</v>
       </c>
       <c r="H15">
-        <v>34.1002353152786</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>12.29295243996802</v>
+        <v>34.17670581637186</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.44409903946631</v>
       </c>
       <c r="K15">
-        <v>9.794147329632958</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>19.09745677419011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>9.807678877878001</v>
+      </c>
+      <c r="M15">
+        <v>19.0190554889749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.57826100596315</v>
+        <v>27.41947094427172</v>
       </c>
       <c r="C16">
-        <v>24.60480826480734</v>
+        <v>24.41578703618543</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.61899872304364</v>
+        <v>3.365082731857173</v>
       </c>
       <c r="F16">
-        <v>44.32671108101663</v>
+        <v>44.25683181598226</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.01154793486455</v>
       </c>
       <c r="H16">
-        <v>33.13714736456366</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12.20185528341961</v>
+        <v>33.23008248993647</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.36075147678925</v>
       </c>
       <c r="K16">
-        <v>9.473208371731813</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>18.44834880234894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>9.487554194945583</v>
+      </c>
+      <c r="M16">
+        <v>18.3714738302244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93116630282168</v>
+        <v>26.77529119517392</v>
       </c>
       <c r="C17">
-        <v>24.01165519777992</v>
+        <v>23.82633062297256</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.596447143419292</v>
+        <v>3.342095279846159</v>
       </c>
       <c r="F17">
-        <v>43.30344358077281</v>
+        <v>43.23825507016913</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.017677227411556</v>
       </c>
       <c r="H17">
-        <v>32.54843908005812</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>12.15002984088147</v>
+        <v>32.65173931958208</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.31359089279283</v>
       </c>
       <c r="K17">
-        <v>9.272921892894567</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.04409853886531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>9.287778557841762</v>
+      </c>
+      <c r="M17">
+        <v>17.96812226030504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.55538137214386</v>
+        <v>26.40118274768233</v>
       </c>
       <c r="C18">
-        <v>23.66763391732757</v>
+        <v>23.48444178676197</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.583857772846107</v>
+        <v>3.329239239462263</v>
       </c>
       <c r="F18">
-        <v>42.71011240159077</v>
+        <v>42.64765699709515</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.021197721299839</v>
       </c>
       <c r="H18">
-        <v>32.21049484864032</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>12.1216146632048</v>
+        <v>32.31985808811221</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.28782839873213</v>
       </c>
       <c r="K18">
-        <v>9.156441223172822</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>17.80927566539274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>9.171596461912548</v>
+      </c>
+      <c r="M18">
+        <v>17.73380354177786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.42751516151799</v>
+        <v>26.27388443455369</v>
       </c>
       <c r="C19">
-        <v>23.5506482193409</v>
+        <v>23.36817953020019</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.579657674113053</v>
+        <v>3.324946223541011</v>
       </c>
       <c r="F19">
-        <v>42.50838428622434</v>
+        <v>42.44686079258472</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.022389119909286</v>
       </c>
       <c r="H19">
-        <v>32.09617780736377</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>12.11222423857353</v>
+        <v>32.20761159777744</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.27933111687178</v>
       </c>
       <c r="K19">
-        <v>9.116780013784066</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>17.72936428523428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>9.132037215584418</v>
+      </c>
+      <c r="M19">
+        <v>17.65406076013143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.00041895952224</v>
+        <v>26.8442336326784</v>
       </c>
       <c r="C20">
-        <v>24.07508910618697</v>
+        <v>23.88937045934856</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.598807537652137</v>
+        <v>3.344503753829025</v>
       </c>
       <c r="F20">
-        <v>43.41286236073278</v>
+        <v>43.34717099699124</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.017025325898945</v>
       </c>
       <c r="H20">
-        <v>32.61103696596502</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>12.15540039654394</v>
+        <v>32.71322342324603</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.31846806624251</v>
       </c>
       <c r="K20">
-        <v>9.294374649776689</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.08736872814713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>9.30917645618849</v>
+      </c>
+      <c r="M20">
+        <v>18.01129812387364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.88353133898761</v>
+        <v>28.71873825644881</v>
       </c>
       <c r="C21">
-        <v>25.80425790191151</v>
+        <v>25.60766550547512</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.667961919691404</v>
+        <v>3.414827872364506</v>
       </c>
       <c r="F21">
-        <v>46.39606729087738</v>
+        <v>46.31675374087133</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.998924092126648</v>
       </c>
       <c r="H21">
-        <v>34.34964487268451</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>12.31781209148761</v>
+        <v>34.42194258941056</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.46692823091043</v>
       </c>
       <c r="K21">
-        <v>9.875983257603608</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>19.26325158480098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>9.889307572729134</v>
+      </c>
+      <c r="M21">
+        <v>19.18444358231856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08595618438125</v>
+        <v>29.91546167764453</v>
       </c>
       <c r="C22">
-        <v>26.91287025958691</v>
+        <v>26.709134835463</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.717378084362141</v>
+        <v>3.464836830261423</v>
       </c>
       <c r="F22">
-        <v>48.3075547292086</v>
+        <v>48.21953154991289</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.986983456823166</v>
       </c>
       <c r="H22">
-        <v>35.49456857331487</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>12.43857525560166</v>
+        <v>35.54813729365591</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.57824854462296</v>
       </c>
       <c r="K22">
-        <v>10.24539515176459</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>20.01318035954638</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>10.25778311320025</v>
+      </c>
+      <c r="M22">
+        <v>19.93244355473989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.44659172176306</v>
+        <v>29.27915118902834</v>
       </c>
       <c r="C23">
-        <v>26.32294033441995</v>
+        <v>26.12302557385151</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.690572180320768</v>
+        <v>3.437731857446806</v>
       </c>
       <c r="F23">
-        <v>47.29061685630479</v>
+        <v>47.20723068011241</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.993370077702189</v>
       </c>
       <c r="H23">
-        <v>34.88254956079381</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>12.37266696570784</v>
+        <v>34.94604628200562</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.5174126862969</v>
       </c>
       <c r="K23">
-        <v>10.04917486891325</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>19.61452328682649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>10.06206057109578</v>
+      </c>
+      <c r="M23">
+        <v>19.53483025194445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.96912158841505</v>
+        <v>26.8130765089272</v>
       </c>
       <c r="C24">
-        <v>24.0464200514361</v>
+        <v>23.86087954123544</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3.597739241042809</v>
+        <v>3.343413770155613</v>
       </c>
       <c r="F24">
-        <v>43.36340987603782</v>
+        <v>43.29794573777894</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.017320060216804</v>
       </c>
       <c r="H24">
-        <v>32.58273489328067</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>12.15296809329255</v>
+        <v>32.68542456676797</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.31625891149815</v>
       </c>
       <c r="K24">
-        <v>9.284680018693839</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.06781381525228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>9.299506611298503</v>
+      </c>
+      <c r="M24">
+        <v>17.99178589436833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.15789342242311</v>
+        <v>24.01416331775172</v>
       </c>
       <c r="C25">
-        <v>21.48009428558279</v>
+        <v>21.31033372476862</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.511928021238679</v>
+        <v>3.255401137186319</v>
       </c>
       <c r="F25">
-        <v>39.03602413202382</v>
+        <v>39.02277296355414</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.042992214697227</v>
       </c>
       <c r="H25">
-        <v>30.12703669726765</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>11.96834993877467</v>
+        <v>30.27588888051272</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.1505038277151</v>
       </c>
       <c r="K25">
-        <v>8.41078501643003</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.31038935775244</v>
+        <v>8.427893551944397</v>
+      </c>
+      <c r="M25">
+        <v>16.23783212189632</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.81784645105703</v>
+        <v>22.6805334441836</v>
       </c>
       <c r="C2">
-        <v>19.32060075449315</v>
+        <v>10.84451864226632</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.199306792314375</v>
+        <v>6.26203812398374</v>
       </c>
       <c r="F2">
-        <v>35.84339836036954</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.062042315947739</v>
+        <v>2.098491753242015</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.51885223820061</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.06305229943796</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.75674295027961</v>
       </c>
       <c r="L2">
-        <v>7.740872231136915</v>
+        <v>7.353094361359824</v>
       </c>
       <c r="M2">
-        <v>14.86085854952746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>13.33479398158864</v>
+      </c>
+      <c r="O2">
+        <v>25.09286177182747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.23818678389028</v>
+        <v>21.27604925913225</v>
       </c>
       <c r="C3">
-        <v>17.89552777578486</v>
+        <v>10.14602702995506</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.165583716565687</v>
+        <v>6.237658619129602</v>
       </c>
       <c r="F3">
-        <v>33.60628200809499</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.075161260529467</v>
+        <v>2.108413320433068</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.33762981507017</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.0214123049815</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.48975076163358</v>
       </c>
       <c r="L3">
-        <v>7.245851454845796</v>
+        <v>7.118035979414866</v>
       </c>
       <c r="M3">
-        <v>13.87088671368922</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.60559919438501</v>
+      </c>
+      <c r="O3">
+        <v>24.47494939683216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.2213720349221</v>
+        <v>20.38338964719811</v>
       </c>
       <c r="C4">
-        <v>16.98078754617151</v>
+        <v>9.69676252995087</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.146700829620292</v>
+        <v>6.225927627497295</v>
       </c>
       <c r="F4">
-        <v>32.19283519624634</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.083351829316854</v>
+        <v>2.114644674206849</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.61735195234943</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>12.00340015139889</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.76613687306477</v>
       </c>
       <c r="L4">
-        <v>6.927094325027785</v>
+        <v>6.975295248409248</v>
       </c>
       <c r="M4">
-        <v>13.23410796360682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.77520862792927</v>
+      </c>
+      <c r="O4">
+        <v>24.11721402296951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.79496199400392</v>
+        <v>20.01221920341546</v>
       </c>
       <c r="C5">
-        <v>16.59777137113312</v>
+        <v>9.50851360473261</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.139427534411503</v>
+        <v>6.221938006210898</v>
       </c>
       <c r="F5">
-        <v>31.60709370122735</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.086727945506533</v>
+        <v>2.117221323363295</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.32519695094281</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>11.9978052542319</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.47840997761719</v>
       </c>
       <c r="L5">
-        <v>6.793439724248613</v>
+        <v>6.917580333532232</v>
       </c>
       <c r="M5">
-        <v>12.96722528107604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.8451929217022</v>
+      </c>
+      <c r="O5">
+        <v>23.97679508742051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.72342203532462</v>
+        <v>19.95014729796528</v>
       </c>
       <c r="C6">
-        <v>16.53354549801075</v>
+        <v>9.476941778465505</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.138244299717201</v>
+        <v>6.221322620404264</v>
       </c>
       <c r="F6">
-        <v>31.50925348368023</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.08729098459172</v>
+        <v>2.11765149083287</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.27677124178642</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>11.99697734642625</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.43029186850196</v>
       </c>
       <c r="L6">
-        <v>6.771018676648359</v>
+        <v>6.908025859083615</v>
       </c>
       <c r="M6">
-        <v>12.92246026807193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.85686696712663</v>
+      </c>
+      <c r="O6">
+        <v>23.9537997184228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.21567043408226</v>
+        <v>20.37841354976361</v>
       </c>
       <c r="C7">
-        <v>16.97566389217585</v>
+        <v>9.69424471893903</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.146601076989131</v>
+        <v>6.225870650592698</v>
       </c>
       <c r="F7">
-        <v>32.18497470226573</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.083397199927868</v>
+        <v>2.114679269826319</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.61340614897218</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>12.00331782566693</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.76227950741885</v>
       </c>
       <c r="L7">
-        <v>6.925307068024105</v>
+        <v>6.974514975073777</v>
       </c>
       <c r="M7">
-        <v>13.23053875145192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.7761489119041</v>
+      </c>
+      <c r="O7">
+        <v>24.11529869790646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.2827516451312</v>
+        <v>22.20266069523533</v>
       </c>
       <c r="C8">
-        <v>18.8373196350261</v>
+        <v>10.60787959780683</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3.187276694913137</v>
+        <v>6.252945789554283</v>
       </c>
       <c r="F8">
-        <v>35.08043009047544</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.066540346908175</v>
+        <v>2.101885171640432</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.11057818436019</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>12.04702974950596</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.3280674351915</v>
       </c>
       <c r="L8">
-        <v>7.573240007764932</v>
+        <v>7.27174790294311</v>
       </c>
       <c r="M8">
-        <v>14.52544589556001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.42749299147231</v>
+      </c>
+      <c r="O8">
+        <v>24.87525859772618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.97705314095592</v>
+        <v>25.56763409403712</v>
       </c>
       <c r="C9">
-        <v>22.18583990108587</v>
+        <v>12.24047253995402</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.283518454572679</v>
+        <v>6.332811578644727</v>
       </c>
       <c r="F9">
-        <v>40.43755645772161</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.03433876249525</v>
+        <v>2.077791189171051</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.08455836634621</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.20038876191916</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.27528265729964</v>
       </c>
       <c r="L9">
-        <v>8.728346472565676</v>
+        <v>7.86516120979876</v>
       </c>
       <c r="M9">
-        <v>16.84143100186174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.76893990179965</v>
+      </c>
+      <c r="O9">
+        <v>26.54126168672654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.49250082633348</v>
+        <v>28.04248550648019</v>
       </c>
       <c r="C10">
-        <v>24.48267406588337</v>
+        <v>13.34784271432584</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.367757712513061</v>
+        <v>6.409357766244796</v>
       </c>
       <c r="F10">
-        <v>44.37242894501968</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>2.010847666006466</v>
+        <v>2.060523773339789</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.29618667315107</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>12.36632432043568</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.26232155907961</v>
       </c>
       <c r="L10">
-        <v>9.510179198983296</v>
+        <v>8.305465026340556</v>
       </c>
       <c r="M10">
-        <v>18.41719059352325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12.29870388608465</v>
+      </c>
+      <c r="O10">
+        <v>27.87828539410607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.59898791550752</v>
+        <v>29.12608182494106</v>
       </c>
       <c r="C11">
-        <v>25.49764254542312</v>
+        <v>13.83298512156639</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3.410048831881333</v>
+        <v>6.448419771754186</v>
       </c>
       <c r="F11">
-        <v>46.1266175499722</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>2.000102330758189</v>
+        <v>2.052718984795569</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.31071764679533</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>12.45651144738758</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.13014775353794</v>
       </c>
       <c r="L11">
-        <v>9.852349694972633</v>
+        <v>8.506475712367632</v>
       </c>
       <c r="M11">
-        <v>19.10954948752003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>12.08739925277464</v>
+      </c>
+      <c r="O11">
+        <v>28.51270405927331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.01307082835449</v>
+        <v>29.53059000426013</v>
       </c>
       <c r="C12">
-        <v>25.87823902887772</v>
+        <v>14.01415571269719</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3.426745776727596</v>
+        <v>6.463853288500269</v>
       </c>
       <c r="F12">
-        <v>46.78430426047788</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>1.996015327628932</v>
+        <v>2.049766590257281</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.69647336454692</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>12.49308489071185</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.45382222335591</v>
       </c>
       <c r="L12">
-        <v>9.980081131688795</v>
+        <v>8.582692227281653</v>
       </c>
       <c r="M12">
-        <v>19.36849124089279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>12.00773674845793</v>
+      </c>
+      <c r="O12">
+        <v>28.75688326646891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.92410036709126</v>
+        <v>29.44372669082242</v>
       </c>
       <c r="C13">
-        <v>25.79642788870539</v>
+        <v>13.97524811901115</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3.423117398040328</v>
+        <v>6.460500336596558</v>
       </c>
       <c r="F13">
-        <v>46.64294175345857</v>
+        <v>39.56266403258221</v>
       </c>
       <c r="G13">
-        <v>1.99689650490824</v>
+        <v>2.05040237399923</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.61331674588705</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>12.485095048007</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.38432933794586</v>
       </c>
       <c r="L13">
-        <v>9.95265202386989</v>
+        <v>8.56627319798144</v>
       </c>
       <c r="M13">
-        <v>19.31286265575095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12.02487802812201</v>
+      </c>
+      <c r="O13">
+        <v>28.70411653639359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.63315011596843</v>
+        <v>29.15947616558637</v>
       </c>
       <c r="C14">
-        <v>25.52902615670989</v>
+        <v>13.84794025277173</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.411408097415176</v>
+        <v>6.449676447136075</v>
       </c>
       <c r="F14">
-        <v>46.18085397513104</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>1.999766510937792</v>
+        <v>2.052476052601604</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.34241989762221</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>12.4594699080593</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.15687444980468</v>
       </c>
       <c r="L14">
-        <v>9.862894514175165</v>
+        <v>8.512744101383591</v>
       </c>
       <c r="M14">
-        <v>19.13091594943761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12.08083837793016</v>
+      </c>
+      <c r="O14">
+        <v>28.53271275741838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.45431069837253</v>
+        <v>28.98461377194677</v>
       </c>
       <c r="C15">
-        <v>25.36476422856207</v>
+        <v>13.76963371723577</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.404328396900971</v>
+        <v>6.443131041292076</v>
       </c>
       <c r="F15">
-        <v>45.89697391073435</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.001521822447991</v>
+        <v>2.05374651472879</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.17670581637186</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>12.44409903946631</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.01691428897289</v>
       </c>
       <c r="L15">
-        <v>9.807678877878001</v>
+        <v>8.479968862146682</v>
       </c>
       <c r="M15">
-        <v>19.0190554889749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>12.11516127105646</v>
+      </c>
+      <c r="O15">
+        <v>28.42824173808653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.41947094427172</v>
+        <v>27.97084031690919</v>
       </c>
       <c r="C16">
-        <v>24.41578703618543</v>
+        <v>13.31577405984961</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.365082731857173</v>
+        <v>6.406892967105201</v>
       </c>
       <c r="F16">
-        <v>44.25683181598226</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.01154793486455</v>
+        <v>2.061034505199238</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.23008248993647</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>12.36075147678925</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.20490055743731</v>
       </c>
       <c r="L16">
-        <v>9.487554194945583</v>
+        <v>8.29234217785919</v>
       </c>
       <c r="M16">
-        <v>18.3714738302244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>12.31256370717563</v>
+      </c>
+      <c r="O16">
+        <v>27.83736552456955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.77529119517392</v>
+        <v>27.33827002538292</v>
       </c>
       <c r="C17">
-        <v>23.82633062297256</v>
+        <v>13.03266912971617</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.342095279846159</v>
+        <v>6.385770094516552</v>
       </c>
       <c r="F17">
-        <v>43.23825507016913</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.017677227411556</v>
+        <v>2.065515546074254</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.65173931958208</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>12.31359089279283</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.69767399433509</v>
       </c>
       <c r="L17">
-        <v>9.287778557841762</v>
+        <v>8.177414731118478</v>
       </c>
       <c r="M17">
-        <v>17.96812226030504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>12.43431519780007</v>
+      </c>
+      <c r="O17">
+        <v>27.48170144187367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.40118274768233</v>
+        <v>26.97044064431562</v>
       </c>
       <c r="C18">
-        <v>23.48444178676197</v>
+        <v>12.86807429118056</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.329239239462263</v>
+        <v>6.37401790777275</v>
       </c>
       <c r="F18">
-        <v>42.64765699709515</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.021197721299839</v>
+        <v>2.068097925616749</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.31985808811221</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>12.28782839873213</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.40251830736089</v>
       </c>
       <c r="L18">
-        <v>9.171596461912548</v>
+        <v>8.111378209474267</v>
       </c>
       <c r="M18">
-        <v>17.73380354177786</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.50458993867124</v>
+      </c>
+      <c r="O18">
+        <v>27.27958649725679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.27388443455369</v>
+        <v>26.84520753964332</v>
       </c>
       <c r="C19">
-        <v>23.36817953020019</v>
+        <v>12.81203921931921</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.324946223541011</v>
+        <v>6.370106098062127</v>
       </c>
       <c r="F19">
-        <v>42.44686079258472</v>
+        <v>36.15172494150062</v>
       </c>
       <c r="G19">
-        <v>2.022389119909286</v>
+        <v>2.068973251685998</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.20761159777744</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>12.27933111687178</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.30199078334333</v>
       </c>
       <c r="L19">
-        <v>9.132037215584418</v>
+        <v>8.089031193950595</v>
       </c>
       <c r="M19">
-        <v>17.65406076013143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.52842681695999</v>
+      </c>
+      <c r="O19">
+        <v>27.2115707195041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.8442336326784</v>
+        <v>27.40601968672302</v>
       </c>
       <c r="C20">
-        <v>23.88937045934856</v>
+        <v>13.06298742184415</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.344503753829025</v>
+        <v>6.387977336531423</v>
       </c>
       <c r="F20">
-        <v>43.34717099699124</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>2.017025325898945</v>
+        <v>2.065038042024049</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.71322342324603</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>12.31846806624251</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.75202066323598</v>
       </c>
       <c r="L20">
-        <v>9.30917645618849</v>
+        <v>8.189642126529954</v>
       </c>
       <c r="M20">
-        <v>18.01129812387364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>12.42132920022966</v>
+      </c>
+      <c r="O20">
+        <v>27.51930744397547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.71873825644881</v>
+        <v>29.24312339046146</v>
       </c>
       <c r="C21">
-        <v>25.60766550547512</v>
+        <v>13.88540149594263</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.414827872364506</v>
+        <v>6.452838007624531</v>
       </c>
       <c r="F21">
-        <v>46.31675374087133</v>
+        <v>39.30090300329769</v>
       </c>
       <c r="G21">
-        <v>1.998924092126648</v>
+        <v>2.051866913885334</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.42194258941056</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>12.46692823091043</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.22381585199665</v>
       </c>
       <c r="L21">
-        <v>9.889307572729134</v>
+        <v>8.528464199428912</v>
       </c>
       <c r="M21">
-        <v>19.18444358231856</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12.06439200109551</v>
+      </c>
+      <c r="O21">
+        <v>28.58294972759921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.91546167764453</v>
+        <v>30.40996183070597</v>
       </c>
       <c r="C22">
-        <v>26.709134835463</v>
+        <v>14.40815471934807</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.464836830261423</v>
+        <v>6.498984543042188</v>
       </c>
       <c r="F22">
-        <v>48.21953154991289</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>1.986983456823166</v>
+        <v>2.043274649736702</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.54813729365591</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>12.57824854462296</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.15698224870867</v>
       </c>
       <c r="L22">
-        <v>10.25778311320025</v>
+        <v>8.750483981642386</v>
       </c>
       <c r="M22">
-        <v>19.93244355473989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.83317068271004</v>
+      </c>
+      <c r="O22">
+        <v>29.30117190294552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.27915118902834</v>
+        <v>29.79019998045088</v>
       </c>
       <c r="C23">
-        <v>26.12302557385151</v>
+        <v>14.13045103916542</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.437731857446806</v>
+        <v>6.474000371697287</v>
       </c>
       <c r="F23">
-        <v>47.20723068011241</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>1.993370077702189</v>
+        <v>2.047860552134157</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.94604628200562</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>12.5174126862969</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.66147775006981</v>
       </c>
       <c r="L23">
-        <v>10.06206057109578</v>
+        <v>8.631932640157929</v>
       </c>
       <c r="M23">
-        <v>19.53483025194445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.95639501460856</v>
+      </c>
+      <c r="O23">
+        <v>28.91566376834207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.8130765089272</v>
+        <v>27.37540302881483</v>
       </c>
       <c r="C24">
-        <v>23.86087954123544</v>
+        <v>13.04928624440991</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3.343413770155613</v>
+        <v>6.386978224929524</v>
       </c>
       <c r="F24">
-        <v>43.29794573777894</v>
+        <v>36.85121910575435</v>
       </c>
       <c r="G24">
-        <v>2.017320060216804</v>
+        <v>2.065253902084786</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.68542456676797</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>12.31625891149815</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.72746159173239</v>
       </c>
       <c r="L24">
-        <v>9.299506611298503</v>
+        <v>8.184114005910882</v>
       </c>
       <c r="M24">
-        <v>17.99178589436833</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>12.42719930157639</v>
+      </c>
+      <c r="O24">
+        <v>27.50229842852546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.01416331775172</v>
+        <v>24.65966144766701</v>
       </c>
       <c r="C25">
-        <v>21.31033372476862</v>
+        <v>11.81539385413391</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3.255401137186319</v>
+        <v>6.308183702217668</v>
       </c>
       <c r="F25">
-        <v>39.02277296355414</v>
+        <v>33.19272459126709</v>
       </c>
       <c r="G25">
-        <v>2.042992214697227</v>
+        <v>2.084219418032227</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.27588888051272</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12.1505038277151</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.51009759856065</v>
       </c>
       <c r="L25">
-        <v>8.427893551944397</v>
+        <v>7.703750713332494</v>
       </c>
       <c r="M25">
-        <v>16.23783212189632</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.94458600819387</v>
+      </c>
+      <c r="O25">
+        <v>26.07118537243627</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.6805334441836</v>
+        <v>13.92917169036695</v>
       </c>
       <c r="C2">
-        <v>10.84451864226632</v>
+        <v>9.162051031247564</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.26203812398374</v>
+        <v>29.53602077577401</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.098491753242015</v>
+        <v>25.8716075405008</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.225310102040858</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.50088505721965</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.75674295027961</v>
+        <v>12.87675779768809</v>
       </c>
       <c r="L2">
-        <v>7.353094361359824</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.33479398158864</v>
+        <v>11.61663774033739</v>
       </c>
       <c r="O2">
-        <v>25.09286177182747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.27604925913225</v>
+        <v>12.99970548602492</v>
       </c>
       <c r="C3">
-        <v>10.14602702995506</v>
+        <v>8.550433695345818</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.237658619129602</v>
+        <v>27.38885985874348</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.108413320433068</v>
+        <v>25.13627399993815</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.247341541276203</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.5863828519815</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.48975076163358</v>
+        <v>12.06728505722344</v>
       </c>
       <c r="L3">
-        <v>7.118035979414866</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.60559919438501</v>
+        <v>11.8641016860981</v>
       </c>
       <c r="O3">
-        <v>24.47494939683216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.38338964719811</v>
+        <v>12.39736914248733</v>
       </c>
       <c r="C4">
-        <v>9.69676252995087</v>
+        <v>8.155907980229699</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.225927627497295</v>
+        <v>26.00808711140604</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.114644674206849</v>
+        <v>24.71622498696784</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.269548418503854</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.65365173204819</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.76613687306477</v>
+        <v>11.54460941123153</v>
       </c>
       <c r="L4">
-        <v>6.975295248409248</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.77520862792927</v>
+        <v>12.01845023496432</v>
       </c>
       <c r="O4">
-        <v>24.11721402296951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.01221920341546</v>
+        <v>12.14389789773232</v>
       </c>
       <c r="C5">
-        <v>9.50851360473261</v>
+        <v>7.990312048932088</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.221938006210898</v>
+        <v>25.4293877969432</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.117221323363295</v>
+        <v>24.55288724023468</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.280664106686555</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.68455603351662</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.47840997761719</v>
+        <v>11.32514713473265</v>
       </c>
       <c r="L5">
-        <v>6.917580333532232</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.8451929217022</v>
+        <v>12.08200003606932</v>
       </c>
       <c r="O5">
-        <v>23.97679508742051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.95014729796528</v>
+        <v>12.10132357567</v>
       </c>
       <c r="C6">
-        <v>9.476941778465505</v>
+        <v>7.962522387295722</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.221322620404264</v>
+        <v>25.33231818480767</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.11765149083287</v>
+        <v>24.52623564055894</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.282631334489691</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.6898922541875</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.43029186850196</v>
+        <v>11.28831476722788</v>
       </c>
       <c r="L6">
-        <v>6.908025859083615</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.85686696712663</v>
+        <v>12.09259309119681</v>
       </c>
       <c r="O6">
-        <v>23.9537997184228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.37841354976361</v>
+        <v>12.39398326250787</v>
       </c>
       <c r="C7">
-        <v>9.69424471893903</v>
+        <v>8.153694283888024</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.225870650592698</v>
+        <v>26.00034786974305</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.114679269826319</v>
+        <v>24.71399054956332</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.269690113088393</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.654054667024</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.76227950741885</v>
+        <v>11.54167586479631</v>
       </c>
       <c r="L7">
-        <v>6.974514975073777</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.7761489119041</v>
+        <v>12.01930459221559</v>
       </c>
       <c r="O7">
-        <v>24.11529869790646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.20266069523533</v>
+        <v>13.61522166538428</v>
       </c>
       <c r="C8">
-        <v>10.60787959780683</v>
+        <v>8.955075232009706</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.252945789554283</v>
+        <v>28.8084265430067</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.101885171640432</v>
+        <v>25.61150253956512</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.231033790369588</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.52716086767708</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.3280674351915</v>
+        <v>12.60296224898643</v>
       </c>
       <c r="L8">
-        <v>7.27174790294311</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.42749299147231</v>
+        <v>11.70149347119456</v>
       </c>
       <c r="O8">
-        <v>24.87525859772618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.56763409403712</v>
+        <v>15.76198050135671</v>
       </c>
       <c r="C9">
-        <v>12.24047253995402</v>
+        <v>10.37850282994442</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.332811578644727</v>
+        <v>33.83603095158031</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.077791189171051</v>
+        <v>27.62316656874962</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.22953066004181</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.40611496941128</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.27528265729964</v>
+        <v>14.48205118024958</v>
       </c>
       <c r="L9">
-        <v>7.86516120979876</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.76893990179965</v>
+        <v>11.09503996520426</v>
       </c>
       <c r="O9">
-        <v>26.54126168672654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.04248550648019</v>
+        <v>17.1925700174941</v>
       </c>
       <c r="C10">
-        <v>13.34784271432584</v>
+        <v>11.33824014190728</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.409357766244796</v>
+        <v>37.26244658651054</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.060523773339789</v>
+        <v>29.2569536152079</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.281514853842085</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.41044994755587</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.26232155907961</v>
+        <v>15.74242527591724</v>
       </c>
       <c r="L10">
-        <v>8.305465026340556</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.29870388608465</v>
+        <v>10.65616607294426</v>
       </c>
       <c r="O10">
-        <v>27.87828539410607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.12608182494106</v>
+        <v>17.81268710729879</v>
       </c>
       <c r="C11">
-        <v>13.83298512156639</v>
+        <v>11.75726280867435</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.448419771754186</v>
+        <v>38.76934658485898</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.052718984795569</v>
+        <v>30.0346906218992</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.318470318174496</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.43622436266612</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.13014775353794</v>
+        <v>16.29060451730796</v>
       </c>
       <c r="L11">
-        <v>8.506475712367632</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.08739925277464</v>
+        <v>10.45707872042575</v>
       </c>
       <c r="O11">
-        <v>28.51270405927331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.53059000426013</v>
+        <v>18.04320420459653</v>
       </c>
       <c r="C12">
-        <v>14.01415571269719</v>
+        <v>11.91351385869538</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.463853288500269</v>
+        <v>39.33310645358857</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.049766590257281</v>
+        <v>30.33424643610732</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.334532056669023</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.44971607987988</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.45382222335591</v>
+        <v>16.49465566793416</v>
       </c>
       <c r="L12">
-        <v>8.582692227281653</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.00773674845793</v>
+        <v>10.38168736457428</v>
       </c>
       <c r="O12">
-        <v>28.75688326646891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.44372669082242</v>
+        <v>17.9937480834809</v>
       </c>
       <c r="C13">
-        <v>13.97524811901115</v>
+        <v>11.87996843220728</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.460500336596558</v>
+        <v>39.21198628963084</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.05040237399923</v>
+        <v>30.26950569883438</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.330978403168684</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.446639393288</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.38432933794586</v>
+        <v>16.45086517776997</v>
       </c>
       <c r="L13">
-        <v>8.56627319798144</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.02487802812201</v>
+        <v>10.39792569775571</v>
       </c>
       <c r="O13">
-        <v>28.70411653639359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.15947616558637</v>
+        <v>17.83173760294368</v>
       </c>
       <c r="C14">
-        <v>13.84794025277173</v>
+        <v>11.77016562131491</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.449676447136075</v>
+        <v>38.8158615837327</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.052476052601604</v>
+        <v>30.05923357301523</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.319749387281625</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.43725773821301</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.15687444980468</v>
+        <v>16.30746217705173</v>
       </c>
       <c r="L14">
-        <v>8.512744101383591</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.08083837793016</v>
+        <v>10.45087675432831</v>
       </c>
       <c r="O14">
-        <v>28.53271275741838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.98461377194677</v>
+        <v>17.73194369798826</v>
       </c>
       <c r="C15">
-        <v>13.76963371723577</v>
+        <v>11.70259583588864</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.443131041292076</v>
+        <v>38.57234736127352</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.05374651472879</v>
+        <v>29.93109572005094</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.313145215432913</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.43200652411543</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.01691428897289</v>
+        <v>16.21916648394152</v>
       </c>
       <c r="L15">
-        <v>8.479968862146682</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.11516127105646</v>
+        <v>10.48330805879938</v>
       </c>
       <c r="O15">
-        <v>28.42824173808653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.97084031690919</v>
+        <v>17.15143532557776</v>
       </c>
       <c r="C16">
-        <v>13.31577405984961</v>
+        <v>11.31051100775482</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.406892967105201</v>
+        <v>37.16297270721087</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.061034505199238</v>
+        <v>29.20682723776206</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.279380524212897</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.40927061259114</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.20490055743731</v>
+        <v>15.70610111648449</v>
       </c>
       <c r="L16">
-        <v>8.29234217785919</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.31256370717563</v>
+        <v>10.66918136566949</v>
       </c>
       <c r="O16">
-        <v>27.83736552456955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.33827002538292</v>
+        <v>16.78752753416496</v>
       </c>
       <c r="C17">
-        <v>13.03266912971617</v>
+        <v>11.06554942544058</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.385770094516552</v>
+        <v>36.28549108122625</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.065515546074254</v>
+        <v>28.77139832253248</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.262182933948845</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.40163509844289</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.69767399433509</v>
+        <v>15.38496308763984</v>
       </c>
       <c r="L17">
-        <v>8.177414731118478</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.43431519780007</v>
+        <v>10.78329637710861</v>
       </c>
       <c r="O17">
-        <v>27.48170144187367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.97044064431562</v>
+        <v>16.57532438036781</v>
       </c>
       <c r="C18">
-        <v>12.86807429118056</v>
+        <v>10.92299372241798</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.37401790777275</v>
+        <v>35.77587346271843</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.068097925616749</v>
+        <v>28.52419356899787</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.253534340757636</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.39946452264832</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.40251830736089</v>
+        <v>15.19787774923699</v>
       </c>
       <c r="L18">
-        <v>8.111378209474267</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.50458993867124</v>
+        <v>10.84899027453653</v>
       </c>
       <c r="O18">
-        <v>27.27958649725679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.84520753964332</v>
+        <v>16.50297621599782</v>
       </c>
       <c r="C19">
-        <v>12.81203921931921</v>
+        <v>10.87443873573667</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.370106098062127</v>
+        <v>35.60246531985155</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>2.068973251685998</v>
+        <v>28.44104935836051</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.250814974238377</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.39910188009647</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.30199078334333</v>
+        <v>15.13412347501142</v>
       </c>
       <c r="L19">
-        <v>8.089031193950595</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.52842681695999</v>
+        <v>10.87124539760629</v>
       </c>
       <c r="O19">
-        <v>27.2115707195041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.40601968672302</v>
+        <v>16.82656484958686</v>
       </c>
       <c r="C20">
-        <v>13.06298742184415</v>
+        <v>11.09179713435633</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.387977336531423</v>
+        <v>36.37940505146075</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>2.065038042024049</v>
+        <v>28.81741443865654</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.263883905337373</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.40221583099315</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.75202066323598</v>
+        <v>15.41939401716883</v>
       </c>
       <c r="L20">
-        <v>8.189642126529954</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.42132920022966</v>
+        <v>10.7711432034135</v>
       </c>
       <c r="O20">
-        <v>27.51930744397547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.24312339046146</v>
+        <v>17.87944005875754</v>
       </c>
       <c r="C21">
-        <v>13.88540149594263</v>
+        <v>11.8024822705296</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.452838007624531</v>
+        <v>38.93239452158724</v>
       </c>
       <c r="F21">
-        <v>39.30090300329769</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.051866913885334</v>
+        <v>30.12085786979489</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.322990252235975</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.43990956556583</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.22381585199665</v>
+        <v>16.34967822324213</v>
       </c>
       <c r="L21">
-        <v>8.528464199428912</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.06439200109551</v>
+        <v>10.43532447662129</v>
       </c>
       <c r="O21">
-        <v>28.58294972759921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.40996183070597</v>
+        <v>18.54250052231033</v>
       </c>
       <c r="C22">
-        <v>14.40815471934807</v>
+        <v>12.25288545720794</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.498984543042188</v>
+        <v>40.56119569909858</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>2.043274649736702</v>
+        <v>31.00220108566661</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.373746711708064</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.48644644364763</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.15698224870867</v>
+        <v>16.93713312242441</v>
       </c>
       <c r="L22">
-        <v>8.750483981642386</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.83317068271004</v>
+        <v>10.21579524003397</v>
       </c>
       <c r="O22">
-        <v>29.30117190294552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.79019998045088</v>
+        <v>18.19086881604422</v>
       </c>
       <c r="C23">
-        <v>14.13045103916542</v>
+        <v>12.01374711481782</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.474000371697287</v>
+        <v>39.69529886765081</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.047860552134157</v>
+        <v>30.52907767339596</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.345494892733006</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.45949969219196</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.66147775006981</v>
+        <v>16.62544446721833</v>
       </c>
       <c r="L23">
-        <v>8.631932640157929</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.95639501460856</v>
+        <v>10.3329963339874</v>
       </c>
       <c r="O23">
-        <v>28.91566376834207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.37540302881483</v>
+        <v>16.80892539292734</v>
       </c>
       <c r="C24">
-        <v>13.04928624440991</v>
+        <v>11.07993592268481</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.386978224929524</v>
+        <v>36.33696260357002</v>
       </c>
       <c r="F24">
-        <v>36.85121910575435</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.065253902084786</v>
+        <v>28.79660081143349</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.263111050003968</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.4019463927918</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.72746159173239</v>
+        <v>15.40383545898882</v>
       </c>
       <c r="L24">
-        <v>8.184114005910882</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.42719930157639</v>
+        <v>10.77663737416093</v>
       </c>
       <c r="O24">
-        <v>27.50229842852546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.65966144766701</v>
+        <v>15.20733584918232</v>
       </c>
       <c r="C25">
-        <v>11.81539385413391</v>
+        <v>10.00887833035069</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.308183702217668</v>
+        <v>32.52480942163139</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.084219418032227</v>
+        <v>27.05175767992153</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.221197336605231</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.4236411469933</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.51009759856065</v>
+        <v>13.99507875316554</v>
       </c>
       <c r="L25">
-        <v>7.703750713332494</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.94458600819387</v>
+        <v>11.25765129654422</v>
       </c>
       <c r="O25">
-        <v>26.07118537243627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.92917169036695</v>
+        <v>9.469919769492789</v>
       </c>
       <c r="C2">
-        <v>9.162051031247564</v>
+        <v>5.402012787507591</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.53602077577401</v>
+        <v>16.45393243414715</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>25.8716075405008</v>
+        <v>29.56062815283716</v>
       </c>
       <c r="H2">
-        <v>9.225310102040858</v>
+        <v>14.37129007864003</v>
       </c>
       <c r="I2">
-        <v>13.50088505721965</v>
+        <v>20.43298986046508</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.87675779768809</v>
+        <v>9.423765959636974</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.61663774033739</v>
+        <v>17.98725513313039</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.99970548602492</v>
+        <v>9.147215534406818</v>
       </c>
       <c r="C3">
-        <v>8.550433695345818</v>
+        <v>5.09092083574448</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.38885985874348</v>
+        <v>15.52356817784021</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>25.13627399993815</v>
+        <v>29.53893829312201</v>
       </c>
       <c r="H3">
-        <v>9.247341541276203</v>
+        <v>14.41946763758516</v>
       </c>
       <c r="I3">
-        <v>13.5863828519815</v>
+        <v>20.51767391087926</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.06728505722344</v>
+        <v>9.198482505174914</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.8641016860981</v>
+        <v>18.05552134879807</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.39736914248733</v>
+        <v>8.945242350474301</v>
       </c>
       <c r="C4">
-        <v>8.155907980229699</v>
+        <v>4.88901637195436</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.00808711140604</v>
+        <v>14.92781344155641</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>24.71622498696784</v>
+        <v>29.53741982651899</v>
       </c>
       <c r="H4">
-        <v>9.269548418503854</v>
+        <v>14.45192169884533</v>
       </c>
       <c r="I4">
-        <v>13.65365173204819</v>
+        <v>20.5743314773648</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.54460941123153</v>
+        <v>9.059511626755471</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.01845023496432</v>
+        <v>18.09928469272128</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.14389789773232</v>
+        <v>8.862110661537438</v>
       </c>
       <c r="C5">
-        <v>7.990312048932088</v>
+        <v>4.804020669530364</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.4293877969432</v>
+        <v>14.67914688706191</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>24.55288724023468</v>
+        <v>29.53975760414241</v>
       </c>
       <c r="H5">
-        <v>9.280664106686555</v>
+        <v>14.46586755326404</v>
       </c>
       <c r="I5">
-        <v>13.68455603351662</v>
+        <v>20.5985880942536</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.32514713473265</v>
+        <v>9.00280526594771</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.08200003606932</v>
+        <v>18.1175848414952</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.10132357567</v>
+        <v>8.848261062005806</v>
       </c>
       <c r="C6">
-        <v>7.962522387295722</v>
+        <v>4.789743772462155</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.33231818480767</v>
+        <v>14.63750911505343</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>24.52623564055894</v>
+        <v>29.54032398947682</v>
       </c>
       <c r="H6">
-        <v>9.282631334489691</v>
+        <v>14.46822671776668</v>
       </c>
       <c r="I6">
-        <v>13.6898922541875</v>
+        <v>20.60268632934189</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.28831476722788</v>
+        <v>8.993387338685006</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.09259309119681</v>
+        <v>18.12065177440406</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.39398326250787</v>
+        <v>8.94412436176391</v>
       </c>
       <c r="C7">
-        <v>8.153694283888024</v>
+        <v>4.887881063018356</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.00034786974305</v>
+        <v>14.92448329568454</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>24.71399054956332</v>
+        <v>29.53743939999179</v>
       </c>
       <c r="H7">
-        <v>9.269690113088393</v>
+        <v>14.45210686248218</v>
       </c>
       <c r="I7">
-        <v>13.654054667024</v>
+        <v>20.57465388581218</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.54167586479631</v>
+        <v>9.058747048713693</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.01930459221559</v>
+        <v>18.09952960504512</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.61522166538428</v>
+        <v>9.359525504292037</v>
       </c>
       <c r="C8">
-        <v>8.955075232009706</v>
+        <v>5.297019938824136</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.8084265430067</v>
+        <v>16.13837621386226</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>25.61150253956512</v>
+        <v>29.55069529742658</v>
       </c>
       <c r="H8">
-        <v>9.231033790369588</v>
+        <v>14.38730434139746</v>
       </c>
       <c r="I8">
-        <v>13.52716086767708</v>
+        <v>20.46121913920082</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.60296224898643</v>
+        <v>9.346273973522115</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.70149347119456</v>
+        <v>18.01041084160255</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.76198050135671</v>
+        <v>10.13827044381388</v>
       </c>
       <c r="C9">
-        <v>10.37850282994442</v>
+        <v>6.01226047360421</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.83603095158031</v>
+        <v>18.38689457359149</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>27.62316656874962</v>
+        <v>29.67061920872602</v>
       </c>
       <c r="H9">
-        <v>9.22953066004181</v>
+        <v>14.28310342552385</v>
       </c>
       <c r="I9">
-        <v>13.40611496941128</v>
+        <v>20.27593340007377</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.48205118024958</v>
+        <v>9.90130602073336</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.09503996520426</v>
+        <v>17.85023320024073</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.1925700174941</v>
+        <v>10.68206710125324</v>
       </c>
       <c r="C10">
-        <v>11.33824014190728</v>
+        <v>6.48410012210165</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.26244658651054</v>
+        <v>20.02198744120049</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>29.2569536152079</v>
+        <v>29.81617748703473</v>
       </c>
       <c r="H10">
-        <v>9.281514853842085</v>
+        <v>14.22060474017653</v>
       </c>
       <c r="I10">
-        <v>13.41044994755587</v>
+        <v>20.16269703702666</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.74242527591724</v>
+        <v>10.29907818600158</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.65616607294426</v>
+        <v>17.74133305884141</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.81268710729879</v>
+        <v>10.92215236026342</v>
       </c>
       <c r="C11">
-        <v>11.75726280867435</v>
+        <v>6.687051736151436</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.76934658485898</v>
+        <v>20.72385057915873</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>30.0346906218992</v>
+        <v>29.89483567533492</v>
       </c>
       <c r="H11">
-        <v>9.318470318174496</v>
+        <v>14.19524854921563</v>
       </c>
       <c r="I11">
-        <v>13.43622436266612</v>
+        <v>20.11620547302218</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.29060451730796</v>
+        <v>10.4769725980814</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.45707872042575</v>
+        <v>17.69367529814501</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.04320420459653</v>
+        <v>11.01193665249546</v>
       </c>
       <c r="C12">
-        <v>11.91351385869538</v>
+        <v>6.762221562852197</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.33310645358857</v>
+        <v>20.98363225195871</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>30.33424643610732</v>
+        <v>29.92640198549851</v>
       </c>
       <c r="H12">
-        <v>9.334532056669023</v>
+        <v>14.18609089060453</v>
       </c>
       <c r="I12">
-        <v>13.44971607987988</v>
+        <v>20.09932653020493</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.49465566793416</v>
+        <v>10.54383015188674</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.38168736457428</v>
+        <v>17.67589735569162</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.9937480834809</v>
+        <v>10.99265149980556</v>
       </c>
       <c r="C13">
-        <v>11.87996843220728</v>
+        <v>6.746107290606929</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.21198628963084</v>
+        <v>20.92794988143827</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>30.26950569883438</v>
+        <v>29.91952462624062</v>
       </c>
       <c r="H13">
-        <v>9.330978403168684</v>
+        <v>14.18804336914099</v>
       </c>
       <c r="I13">
-        <v>13.446639393288</v>
+        <v>20.10292933395909</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.45086517776997</v>
+        <v>10.52945476707707</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.39792569775571</v>
+        <v>17.67971421342498</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.83173760294368</v>
+        <v>10.92956206813413</v>
       </c>
       <c r="C14">
-        <v>11.77016562131491</v>
+        <v>6.693269751015183</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.8158615837327</v>
+        <v>20.74534300468651</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>30.05923357301523</v>
+        <v>29.89739704267327</v>
       </c>
       <c r="H14">
-        <v>9.319749387281625</v>
+        <v>14.19448622956051</v>
       </c>
       <c r="I14">
-        <v>13.43725773821301</v>
+        <v>20.11480224828335</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.30746217705173</v>
+        <v>10.48248354544755</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.45087675432831</v>
+        <v>17.6922073133809</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.73194369798826</v>
+        <v>10.89076842850628</v>
       </c>
       <c r="C15">
-        <v>11.70259583588864</v>
+        <v>6.66068594531014</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.57234736127352</v>
+        <v>20.63271080784093</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>29.93109572005094</v>
+        <v>29.88407475595089</v>
       </c>
       <c r="H15">
-        <v>9.313145215432913</v>
+        <v>14.19849057281323</v>
       </c>
       <c r="I15">
-        <v>13.43200652411543</v>
+        <v>20.12216948373912</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.21916648394152</v>
+        <v>10.45364433353481</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.48330805879938</v>
+        <v>17.69989468639041</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.15143532557776</v>
+        <v>10.66622299093918</v>
       </c>
       <c r="C16">
-        <v>11.31051100775482</v>
+        <v>6.47060125741612</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.16297270721087</v>
+        <v>19.97527778794497</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>29.20682723776206</v>
+        <v>29.81128667675246</v>
       </c>
       <c r="H16">
-        <v>9.279380524212897</v>
+        <v>14.22232387356013</v>
       </c>
       <c r="I16">
-        <v>13.40927061259114</v>
+        <v>20.1658367747876</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.70610111648449</v>
+        <v>10.28738497794513</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.66918136566949</v>
+        <v>17.74448533403654</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.78752753416496</v>
+        <v>10.52654256858247</v>
       </c>
       <c r="C17">
-        <v>11.06554942544058</v>
+        <v>6.350993830304373</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.28549108122625</v>
+        <v>19.56124375124772</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>28.77139832253248</v>
+        <v>29.76981515475792</v>
       </c>
       <c r="H17">
-        <v>9.262182933948845</v>
+        <v>14.23773381001916</v>
       </c>
       <c r="I17">
-        <v>13.40163509844289</v>
+        <v>20.19391424863791</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.38496308763984</v>
+        <v>10.18455797017895</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.78329637710861</v>
+        <v>17.77232104513505</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.57532438036781</v>
+        <v>10.44552013769755</v>
       </c>
       <c r="C18">
-        <v>10.92299372241798</v>
+        <v>6.281098432494926</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.77587346271843</v>
+        <v>19.31915191422912</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>28.52419356899787</v>
+        <v>29.7471338037697</v>
       </c>
       <c r="H18">
-        <v>9.253534340757636</v>
+        <v>14.24688649032124</v>
       </c>
       <c r="I18">
-        <v>13.39946452264832</v>
+        <v>20.21053592729778</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.19787774923699</v>
+        <v>10.12513086391709</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.84899027453653</v>
+        <v>17.78850859298717</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.50297621599782</v>
+        <v>10.41797288259489</v>
       </c>
       <c r="C19">
-        <v>10.87443873573667</v>
+        <v>6.257244169564154</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.60246531985155</v>
+        <v>19.23650426596693</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>28.44104935836051</v>
+        <v>29.73965579421802</v>
       </c>
       <c r="H19">
-        <v>9.250814974238377</v>
+        <v>14.2500350545303</v>
       </c>
       <c r="I19">
-        <v>13.39910188009647</v>
+        <v>20.21624471572246</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.13412347501142</v>
+        <v>10.10496329321886</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.87124539760629</v>
+        <v>17.79401989682134</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.82656484958686</v>
+        <v>10.54148299491305</v>
       </c>
       <c r="C20">
-        <v>11.09179713435633</v>
+        <v>6.363840153116667</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.37940505146075</v>
+        <v>19.60572699042331</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>28.81741443865654</v>
+        <v>29.77410862892435</v>
       </c>
       <c r="H20">
-        <v>9.263883905337373</v>
+        <v>14.23606344043787</v>
       </c>
       <c r="I20">
-        <v>13.40221583099315</v>
+        <v>20.19087644395488</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.41939401716883</v>
+        <v>10.19553395494043</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.7711432034135</v>
+        <v>17.76933955948771</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.87944005875754</v>
+        <v>10.94812426129617</v>
       </c>
       <c r="C21">
-        <v>11.8024822705296</v>
+        <v>6.708835118154574</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.93239452158724</v>
+        <v>20.79914160683686</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>30.12085786979489</v>
+        <v>29.90384822786607</v>
       </c>
       <c r="H21">
-        <v>9.322990252235975</v>
+        <v>14.19258173429729</v>
       </c>
       <c r="I21">
-        <v>13.43990956556583</v>
+        <v>20.1112951353281</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.34967822324213</v>
+        <v>10.49629441341239</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.43532447662129</v>
+        <v>17.6885304982289</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.54250052231033</v>
+        <v>11.20726523608607</v>
       </c>
       <c r="C22">
-        <v>12.25288545720794</v>
+        <v>6.924496425083227</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.56119569909858</v>
+        <v>21.54415763520837</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>31.00220108566661</v>
+        <v>29.99900993824632</v>
       </c>
       <c r="H22">
-        <v>9.373746711708064</v>
+        <v>14.16675387122167</v>
       </c>
       <c r="I22">
-        <v>13.48644644364763</v>
+        <v>20.06352026633907</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.93713312242441</v>
+        <v>10.68987452232216</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.21579524003397</v>
+        <v>17.63728443632416</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.19086881604422</v>
+        <v>11.06958753703318</v>
       </c>
       <c r="C23">
-        <v>12.01374711481782</v>
+        <v>6.810292133217727</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.69529886765081</v>
+        <v>21.14971541479037</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>30.52907767339596</v>
+        <v>29.94727548572479</v>
       </c>
       <c r="H23">
-        <v>9.345494892733006</v>
+        <v>14.18030104430328</v>
       </c>
       <c r="I23">
-        <v>13.45949969219196</v>
+        <v>20.0886295235368</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.62544446721833</v>
+        <v>10.58685136361691</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.3329963339874</v>
+        <v>17.66449251836815</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.80892539292734</v>
+        <v>10.53473065910903</v>
       </c>
       <c r="C24">
-        <v>11.07993592268481</v>
+        <v>6.358035854834708</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.33696260357002</v>
+        <v>19.58562876150476</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>28.79660081143349</v>
+        <v>29.77216393141411</v>
       </c>
       <c r="H24">
-        <v>9.263111050003968</v>
+        <v>14.23681770097839</v>
       </c>
       <c r="I24">
-        <v>13.4019463927918</v>
+        <v>20.19224834186392</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.40383545898882</v>
+        <v>10.19057267406676</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.77663737416093</v>
+        <v>17.77068691448661</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.20733584918232</v>
+        <v>9.932152159568167</v>
       </c>
       <c r="C25">
-        <v>10.00887833035069</v>
+        <v>5.828163280400064</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.52480942163139</v>
+        <v>17.74906723250236</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>27.05175767992153</v>
+        <v>29.62808726584334</v>
       </c>
       <c r="H25">
-        <v>9.221197336605231</v>
+        <v>14.30883183695821</v>
       </c>
       <c r="I25">
-        <v>13.4236411469933</v>
+        <v>20.32205519575081</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.99507875316554</v>
+        <v>9.752594785740209</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.25765129654422</v>
+        <v>17.89201541422073</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.469919769492789</v>
+        <v>13.92917169036706</v>
       </c>
       <c r="C2">
-        <v>5.402012787507591</v>
+        <v>9.162051031247442</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.45393243414715</v>
+        <v>29.53602077577403</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>29.56062815283716</v>
+        <v>25.8716075405006</v>
       </c>
       <c r="H2">
-        <v>14.37129007864003</v>
+        <v>9.225310102040678</v>
       </c>
       <c r="I2">
-        <v>20.43298986046508</v>
+        <v>13.50088505721942</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.423765959636974</v>
+        <v>12.87675779768815</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.98725513313039</v>
+        <v>11.61663774033722</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.147215534406818</v>
+        <v>12.9997054860249</v>
       </c>
       <c r="C3">
-        <v>5.09092083574448</v>
+        <v>8.550433695345742</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.52356817784021</v>
+        <v>27.38885985874345</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>29.53893829312201</v>
+        <v>25.13627399993821</v>
       </c>
       <c r="H3">
-        <v>14.41946763758516</v>
+        <v>9.247341541276253</v>
       </c>
       <c r="I3">
-        <v>20.51767391087926</v>
+        <v>13.58638285198158</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.198482505174914</v>
+        <v>12.06728505722342</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.05552134879807</v>
+        <v>11.86410168609812</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.945242350474301</v>
+        <v>12.39736914248731</v>
       </c>
       <c r="C4">
-        <v>4.88901637195436</v>
+        <v>8.155907980229655</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.92781344155641</v>
+        <v>26.00808711140604</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>29.53741982651899</v>
+        <v>24.71622498696801</v>
       </c>
       <c r="H4">
-        <v>14.45192169884533</v>
+        <v>9.269548418503875</v>
       </c>
       <c r="I4">
-        <v>20.5743314773648</v>
+        <v>13.65365173204824</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.059511626755471</v>
+        <v>11.54460941123151</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.09928469272128</v>
+        <v>12.01845023496432</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.862110661537438</v>
+        <v>12.14389789773239</v>
       </c>
       <c r="C5">
-        <v>4.804020669530364</v>
+        <v>7.990312048931934</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.67914688706191</v>
+        <v>25.42938779694325</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>29.53975760414241</v>
+        <v>24.5528872402348</v>
       </c>
       <c r="H5">
-        <v>14.46586755326404</v>
+        <v>9.280664106686514</v>
       </c>
       <c r="I5">
-        <v>20.5985880942536</v>
+        <v>13.68455603351656</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.00280526594771</v>
+        <v>11.32514713473266</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.1175848414952</v>
+        <v>12.08200003606932</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.848261062005806</v>
+        <v>12.10132357566997</v>
       </c>
       <c r="C6">
-        <v>4.789743772462155</v>
+        <v>7.962522387295909</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.63750911505343</v>
+        <v>25.33231818480767</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>29.54032398947682</v>
+        <v>24.52623564055892</v>
       </c>
       <c r="H6">
-        <v>14.46822671776668</v>
+        <v>9.28263133448975</v>
       </c>
       <c r="I6">
-        <v>20.60268632934189</v>
+        <v>13.6898922541876</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.993387338685006</v>
+        <v>11.28831476722788</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.12065177440406</v>
+        <v>12.09259309119687</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.94412436176391</v>
+        <v>12.39398326250782</v>
       </c>
       <c r="C7">
-        <v>4.887881063018356</v>
+        <v>8.15369428388801</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.92448329568454</v>
+        <v>26.00034786974304</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>29.53743939999179</v>
+        <v>24.71399054956353</v>
       </c>
       <c r="H7">
-        <v>14.45210686248218</v>
+        <v>9.269690113088402</v>
       </c>
       <c r="I7">
-        <v>20.57465388581218</v>
+        <v>13.6540546670241</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.058747048713693</v>
+        <v>11.54167586479631</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.09952960504512</v>
+        <v>12.01930459221563</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.359525504292037</v>
+        <v>13.61522166538437</v>
       </c>
       <c r="C8">
-        <v>5.297019938824136</v>
+        <v>8.955075232009706</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.13837621386226</v>
+        <v>28.8084265430068</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>29.55069529742658</v>
+        <v>25.61150253956491</v>
       </c>
       <c r="H8">
-        <v>14.38730434139746</v>
+        <v>9.231033790369532</v>
       </c>
       <c r="I8">
-        <v>20.46121913920082</v>
+        <v>13.52716086767695</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.346273973522115</v>
+        <v>12.60296224898651</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.01041084160255</v>
+        <v>11.70149347119453</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.13827044381388</v>
+        <v>15.76198050135672</v>
       </c>
       <c r="C9">
-        <v>6.01226047360421</v>
+        <v>10.37850282994457</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.38689457359149</v>
+        <v>33.83603095158027</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>29.67061920872602</v>
+        <v>27.62316656874954</v>
       </c>
       <c r="H9">
-        <v>14.28310342552385</v>
+        <v>9.229530660041704</v>
       </c>
       <c r="I9">
-        <v>20.27593340007377</v>
+        <v>13.40611496941125</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.90130602073336</v>
+        <v>14.48205118024961</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.85023320024073</v>
+        <v>11.09503996520423</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.68206710125324</v>
+        <v>17.1925700174941</v>
       </c>
       <c r="C10">
-        <v>6.48410012210165</v>
+        <v>11.3382401419073</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.02198744120049</v>
+        <v>37.26244658651053</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>29.81617748703473</v>
+        <v>29.25695361520787</v>
       </c>
       <c r="H10">
-        <v>14.22060474017653</v>
+        <v>9.281514853842076</v>
       </c>
       <c r="I10">
-        <v>20.16269703702666</v>
+        <v>13.41044994755579</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.29907818600158</v>
+        <v>15.74242527591724</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.74133305884141</v>
+        <v>10.65616607294423</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.92215236026342</v>
+        <v>17.81268710729878</v>
       </c>
       <c r="C11">
-        <v>6.687051736151436</v>
+        <v>11.75726280867436</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.72385057915873</v>
+        <v>38.76934658485894</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>29.89483567533492</v>
+        <v>30.0346906218993</v>
       </c>
       <c r="H11">
-        <v>14.19524854921563</v>
+        <v>9.31847031817453</v>
       </c>
       <c r="I11">
-        <v>20.11620547302218</v>
+        <v>13.43622436266619</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.4769725980814</v>
+        <v>16.29060451730793</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.69367529814501</v>
+        <v>10.45707872042582</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.01193665249546</v>
+        <v>18.04320420459657</v>
       </c>
       <c r="C12">
-        <v>6.762221562852197</v>
+        <v>11.91351385869527</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.98363225195871</v>
+        <v>39.33310645358847</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>29.92640198549851</v>
+        <v>30.33424643610747</v>
       </c>
       <c r="H12">
-        <v>14.18609089060453</v>
+        <v>9.334532056669081</v>
       </c>
       <c r="I12">
-        <v>20.09932653020493</v>
+        <v>13.44971607987994</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.54383015188674</v>
+        <v>16.49465566793415</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.67589735569162</v>
+        <v>10.38168736457432</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.99265149980556</v>
+        <v>17.99374808348093</v>
       </c>
       <c r="C13">
-        <v>6.746107290606929</v>
+        <v>11.87996843220722</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.92794988143827</v>
+        <v>39.21198628963079</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>29.91952462624062</v>
+        <v>30.26950569883445</v>
       </c>
       <c r="H13">
-        <v>14.18804336914099</v>
+        <v>9.33097840316873</v>
       </c>
       <c r="I13">
-        <v>20.10292933395909</v>
+        <v>13.44663939328807</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.52945476707707</v>
+        <v>16.45086517777001</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.67971421342498</v>
+        <v>10.39792569775581</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.92956206813413</v>
+        <v>17.83173760294367</v>
       </c>
       <c r="C14">
-        <v>6.693269751015183</v>
+        <v>11.77016562131492</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.74534300468651</v>
+        <v>38.81586158373275</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>29.89739704267327</v>
+        <v>30.05923357301526</v>
       </c>
       <c r="H14">
-        <v>14.19448622956051</v>
+        <v>9.319749387281682</v>
       </c>
       <c r="I14">
-        <v>20.11480224828335</v>
+        <v>13.43725773821298</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.48248354544755</v>
+        <v>16.30746217705173</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.6922073133809</v>
+        <v>10.45087675432824</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.89076842850628</v>
+        <v>17.7319436979883</v>
       </c>
       <c r="C15">
-        <v>6.66068594531014</v>
+        <v>11.70259583588861</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.63271080784093</v>
+        <v>38.57234736127342</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>29.88407475595089</v>
+        <v>29.93109572005095</v>
       </c>
       <c r="H15">
-        <v>14.19849057281323</v>
+        <v>9.313145215432945</v>
       </c>
       <c r="I15">
-        <v>20.12216948373912</v>
+        <v>13.43200652411556</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.45364433353481</v>
+        <v>16.21916648394151</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.69989468639041</v>
+        <v>10.48330805879951</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.66622299093918</v>
+        <v>17.15143532557775</v>
       </c>
       <c r="C16">
-        <v>6.47060125741612</v>
+        <v>11.31051100775494</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.97527778794497</v>
+        <v>37.16297270721084</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>29.81128667675246</v>
+        <v>29.20682723776213</v>
       </c>
       <c r="H16">
-        <v>14.22232387356013</v>
+        <v>9.279380524212954</v>
       </c>
       <c r="I16">
-        <v>20.1658367747876</v>
+        <v>13.40927061259122</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.28738497794513</v>
+        <v>15.70610111648451</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.74448533403654</v>
+        <v>10.66918136566959</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.52654256858247</v>
+        <v>16.78752753416501</v>
       </c>
       <c r="C17">
-        <v>6.350993830304373</v>
+        <v>11.06554942544061</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.56124375124772</v>
+        <v>36.28549108122627</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>29.76981515475792</v>
+        <v>28.77139832253248</v>
       </c>
       <c r="H17">
-        <v>14.23773381001916</v>
+        <v>9.26218293394882</v>
       </c>
       <c r="I17">
-        <v>20.19391424863791</v>
+        <v>13.40163509844288</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.18455797017895</v>
+        <v>15.38496308763987</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.77232104513505</v>
+        <v>10.78329637710854</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.44552013769755</v>
+        <v>16.57532438036775</v>
       </c>
       <c r="C18">
-        <v>6.281098432494926</v>
+        <v>10.92299372241791</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.31915191422912</v>
+        <v>35.77587346271843</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>29.7471338037697</v>
+        <v>28.52419356899794</v>
       </c>
       <c r="H18">
-        <v>14.24688649032124</v>
+        <v>9.25353434075771</v>
       </c>
       <c r="I18">
-        <v>20.21053592729778</v>
+        <v>13.39946452264841</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.12513086391709</v>
+        <v>15.19787774923692</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.78850859298717</v>
+        <v>10.84899027453663</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.41797288259489</v>
+        <v>16.50297621599779</v>
       </c>
       <c r="C19">
-        <v>6.257244169564154</v>
+        <v>10.87443873573664</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.23650426596693</v>
+        <v>35.60246531985143</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>29.73965579421802</v>
+        <v>28.44104935836071</v>
       </c>
       <c r="H19">
-        <v>14.2500350545303</v>
+        <v>9.250814974238446</v>
       </c>
       <c r="I19">
-        <v>20.21624471572246</v>
+        <v>13.39910188009662</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.10496329321886</v>
+        <v>15.13412347501139</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.79401989682134</v>
+        <v>10.87124539760636</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.54148299491305</v>
+        <v>16.82656484958683</v>
       </c>
       <c r="C20">
-        <v>6.363840153116667</v>
+        <v>11.09179713435637</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.60572699042331</v>
+        <v>36.37940505146074</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>29.77410862892435</v>
+        <v>28.81741443865652</v>
       </c>
       <c r="H20">
-        <v>14.23606344043787</v>
+        <v>9.263883905337378</v>
       </c>
       <c r="I20">
-        <v>20.19087644395488</v>
+        <v>13.40221583099317</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.19553395494043</v>
+        <v>15.41939401716884</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.76933955948771</v>
+        <v>10.7711432034135</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.94812426129617</v>
+        <v>17.87944005875753</v>
       </c>
       <c r="C21">
-        <v>6.708835118154574</v>
+        <v>11.80248227052956</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.79914160683686</v>
+        <v>38.93239452158728</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>29.90384822786607</v>
+        <v>30.12085786979499</v>
       </c>
       <c r="H21">
-        <v>14.19258173429729</v>
+        <v>9.322990252236043</v>
       </c>
       <c r="I21">
-        <v>20.1112951353281</v>
+        <v>13.43990956556588</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.49629441341239</v>
+        <v>16.34967822324209</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.6885304982289</v>
+        <v>10.4353244766213</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.20726523608607</v>
+        <v>18.54250052231036</v>
       </c>
       <c r="C22">
-        <v>6.924496425083227</v>
+        <v>12.25288545720793</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.54415763520837</v>
+        <v>40.56119569909855</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>29.99900993824632</v>
+        <v>31.00220108566666</v>
       </c>
       <c r="H22">
-        <v>14.16675387122167</v>
+        <v>9.373746711708071</v>
       </c>
       <c r="I22">
-        <v>20.06352026633907</v>
+        <v>13.48644644364766</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.68987452232216</v>
+        <v>16.93713312242441</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.63728443632416</v>
+        <v>10.21579524003397</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.06958753703318</v>
+        <v>18.1908688160441</v>
       </c>
       <c r="C23">
-        <v>6.810292133217727</v>
+        <v>12.01374711481791</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.14971541479037</v>
+        <v>39.69529886765078</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>29.94727548572479</v>
+        <v>30.52907767339613</v>
       </c>
       <c r="H23">
-        <v>14.18030104430328</v>
+        <v>9.345494892733116</v>
       </c>
       <c r="I23">
-        <v>20.0886295235368</v>
+        <v>13.45949969219214</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.58685136361691</v>
+        <v>16.62544446721825</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.66449251836815</v>
+        <v>10.33299633398753</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.53473065910903</v>
+        <v>16.80892539292726</v>
       </c>
       <c r="C24">
-        <v>6.358035854834708</v>
+        <v>11.07993592268484</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.58562876150476</v>
+        <v>36.33696260357006</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>29.77216393141411</v>
+        <v>28.79660081143354</v>
       </c>
       <c r="H24">
-        <v>14.23681770097839</v>
+        <v>9.263111050003948</v>
       </c>
       <c r="I24">
-        <v>20.19224834186392</v>
+        <v>13.40194639279189</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.19057267406676</v>
+        <v>15.40383545898877</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.77068691448661</v>
+        <v>10.77663737416093</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.932152159568167</v>
+        <v>15.20733584918247</v>
       </c>
       <c r="C25">
-        <v>5.828163280400064</v>
+        <v>10.0088783303507</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.74906723250236</v>
+        <v>32.52480942163136</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>29.62808726584334</v>
+        <v>27.05175767992142</v>
       </c>
       <c r="H25">
-        <v>14.30883183695821</v>
+        <v>9.22119733660514</v>
       </c>
       <c r="I25">
-        <v>20.32205519575081</v>
+        <v>13.42364114699317</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.752594785740209</v>
+        <v>13.99507875316565</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.89201541422073</v>
+        <v>11.25765129654422</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.92917169036706</v>
+        <v>12.94579404754182</v>
       </c>
       <c r="C2">
-        <v>9.162051031247442</v>
+        <v>7.870021978504862</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.53602077577403</v>
+        <v>9.234331892093147</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>25.8716075405006</v>
+        <v>19.30135768045848</v>
       </c>
       <c r="H2">
-        <v>9.225310102040678</v>
+        <v>2.040825964853216</v>
       </c>
       <c r="I2">
-        <v>13.50088505721942</v>
+        <v>2.917706924855642</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.630101362747986</v>
       </c>
       <c r="K2">
-        <v>12.87675779768815</v>
+        <v>14.27975705239945</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.60153856806238</v>
       </c>
       <c r="N2">
-        <v>11.61663774033722</v>
+        <v>7.270645689345844</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.64945868548276</v>
+      </c>
+      <c r="Q2">
+        <v>13.56286783300685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.9997054860249</v>
+        <v>12.12904553640368</v>
       </c>
       <c r="C3">
-        <v>8.550433695345742</v>
+        <v>7.778343932439757</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.38885985874345</v>
+        <v>8.994557467307519</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>25.13627399993821</v>
+        <v>19.26368625447996</v>
       </c>
       <c r="H3">
-        <v>9.247341541276253</v>
+        <v>2.194658019138712</v>
       </c>
       <c r="I3">
-        <v>13.58638285198158</v>
+        <v>3.030417942543318</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.687579430409031</v>
       </c>
       <c r="K3">
-        <v>12.06728505722342</v>
+        <v>14.37683456864093</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.0495415625635</v>
       </c>
       <c r="N3">
-        <v>11.86410168609812</v>
+        <v>7.017930270303658</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.74484874000913</v>
+      </c>
+      <c r="Q3">
+        <v>13.62977036084183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.39736914248731</v>
+        <v>11.59633248761594</v>
       </c>
       <c r="C4">
-        <v>8.155907980229655</v>
+        <v>7.721173705806383</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.00808711140604</v>
+        <v>8.842865248931957</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>24.71622498696801</v>
+        <v>19.24982940443972</v>
       </c>
       <c r="H4">
-        <v>9.269548418503875</v>
+        <v>2.292837317338814</v>
       </c>
       <c r="I4">
-        <v>13.65365173204824</v>
+        <v>3.10315162043877</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.724976282944912</v>
       </c>
       <c r="K4">
-        <v>11.54460941123151</v>
+        <v>14.43949478090209</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.693511809651731</v>
       </c>
       <c r="N4">
-        <v>12.01845023496432</v>
+        <v>6.858267145313958</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.80544320840406</v>
+      </c>
+      <c r="Q4">
+        <v>13.67541873607791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.14389789773239</v>
+        <v>11.36643765724646</v>
       </c>
       <c r="C5">
-        <v>7.990312048931934</v>
+        <v>7.699145442005917</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.42938779694325</v>
+        <v>8.777727731392105</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>24.5528872402348</v>
+        <v>19.23811858743972</v>
       </c>
       <c r="H5">
-        <v>9.280664106686514</v>
+        <v>2.334075276050163</v>
       </c>
       <c r="I5">
-        <v>13.68455603351656</v>
+        <v>3.136468133655532</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.739492585502362</v>
       </c>
       <c r="K5">
-        <v>11.32514713473266</v>
+        <v>14.46234898241955</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.544080027932782</v>
       </c>
       <c r="N5">
-        <v>12.08200003606932</v>
+        <v>6.792601655383902</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.83089238571926</v>
+      </c>
+      <c r="Q5">
+        <v>13.69192123236028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.10132357566997</v>
+        <v>11.32168616729579</v>
       </c>
       <c r="C6">
-        <v>7.962522387295909</v>
+        <v>7.69732912327795</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.33231818480767</v>
+        <v>8.764090867514989</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>24.52623564055892</v>
+        <v>19.22613045097792</v>
       </c>
       <c r="H6">
-        <v>9.28263133448975</v>
+        <v>2.341325511553991</v>
       </c>
       <c r="I6">
-        <v>13.6898922541876</v>
+        <v>3.145637841824068</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.740412474987032</v>
       </c>
       <c r="K6">
-        <v>11.28831476722788</v>
+        <v>14.46199180539952</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.518852319093602</v>
       </c>
       <c r="N6">
-        <v>12.09259309119687</v>
+        <v>6.782196743702906</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.83545995806529</v>
+      </c>
+      <c r="Q6">
+        <v>13.69079396278836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.39398326250782</v>
+        <v>11.5769761444906</v>
       </c>
       <c r="C7">
-        <v>8.15369428388801</v>
+        <v>7.725966777906387</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.00034786974304</v>
+        <v>8.834540260670531</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>24.71399054956353</v>
+        <v>19.22191284633087</v>
       </c>
       <c r="H7">
-        <v>9.269690113088402</v>
+        <v>2.294314287338273</v>
       </c>
       <c r="I7">
-        <v>13.6540546670241</v>
+        <v>3.113059284773461</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.721023298036986</v>
       </c>
       <c r="K7">
-        <v>11.54167586479631</v>
+        <v>14.4283502763647</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.691078657836627</v>
       </c>
       <c r="N7">
-        <v>12.01930459221563</v>
+        <v>6.858905866571891</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.80669349851337</v>
+      </c>
+      <c r="Q7">
+        <v>13.66490575360953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.61522166538437</v>
+        <v>12.65076222445035</v>
       </c>
       <c r="C8">
-        <v>8.955075232009706</v>
+        <v>7.845480102069388</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.8084265430068</v>
+        <v>9.143134073753348</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>25.61150253956491</v>
+        <v>19.24997177823835</v>
       </c>
       <c r="H8">
-        <v>9.231033790369532</v>
+        <v>2.094243707042533</v>
       </c>
       <c r="I8">
-        <v>13.52716086767695</v>
+        <v>2.967868943925891</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.644032057897709</v>
       </c>
       <c r="K8">
-        <v>12.60296224898651</v>
+        <v>14.29751468615333</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.41427565345113</v>
       </c>
       <c r="N8">
-        <v>11.70149347119453</v>
+        <v>7.186442702704062</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.68339031976829</v>
+      </c>
+      <c r="Q8">
+        <v>13.57083720989806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.76198050135672</v>
+        <v>14.5698179828403</v>
       </c>
       <c r="C9">
-        <v>10.37850282994457</v>
+        <v>8.063883223342621</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.83603095158027</v>
+        <v>9.723149086420424</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>27.62316656874954</v>
+        <v>19.43087329748478</v>
       </c>
       <c r="H9">
-        <v>9.229530660041704</v>
+        <v>1.729539561688046</v>
       </c>
       <c r="I9">
-        <v>13.40611496941125</v>
+        <v>2.69547107965905</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.517473245485389</v>
       </c>
       <c r="K9">
-        <v>14.48205118024961</v>
+        <v>14.08611760431815</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.69448825701185</v>
       </c>
       <c r="N9">
-        <v>11.09503996520423</v>
+        <v>7.787682546248337</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.45571891758159</v>
+      </c>
+      <c r="Q9">
+        <v>13.44315240083196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.1925700174941</v>
+        <v>15.77986426753005</v>
       </c>
       <c r="C10">
-        <v>11.3382401419073</v>
+        <v>8.242523400827807</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.26244658651053</v>
+        <v>9.957051403563561</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>29.25695361520787</v>
+        <v>19.47022977488326</v>
       </c>
       <c r="H10">
-        <v>9.281514853842076</v>
+        <v>1.63468500985814</v>
       </c>
       <c r="I10">
-        <v>13.41044994755579</v>
+        <v>2.522748287070508</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.413976332557601</v>
       </c>
       <c r="K10">
-        <v>15.74242527591724</v>
+        <v>13.8922485376897</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.53992855288563</v>
       </c>
       <c r="N10">
-        <v>10.65616607294423</v>
+        <v>8.072177509370674</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.30769229107315</v>
+      </c>
+      <c r="Q10">
+        <v>13.31792595236003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.81268710729878</v>
+        <v>15.84196002799087</v>
       </c>
       <c r="C11">
-        <v>11.75726280867436</v>
+        <v>8.532826116998894</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.76934658485894</v>
+        <v>8.740002838254641</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>30.0346906218993</v>
+        <v>18.32907355560462</v>
       </c>
       <c r="H11">
-        <v>9.31847031817453</v>
+        <v>2.639581146525645</v>
       </c>
       <c r="I11">
-        <v>13.43622436266619</v>
+        <v>2.5043933220963</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.195982767075098</v>
       </c>
       <c r="K11">
-        <v>16.29060451730793</v>
+        <v>13.38028125864901</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.84196778233599</v>
       </c>
       <c r="N11">
-        <v>10.45707872042582</v>
+        <v>7.099359398517767</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.33258980439775</v>
+      </c>
+      <c r="Q11">
+        <v>12.81031561576962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.04320420459657</v>
+        <v>15.66570783279731</v>
       </c>
       <c r="C12">
-        <v>11.91351385869527</v>
+        <v>8.772036739474768</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.33310645358847</v>
+        <v>7.837181777845262</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>30.33424643610747</v>
+        <v>17.39701671896605</v>
       </c>
       <c r="H12">
-        <v>9.334532056669081</v>
+        <v>4.075240705772586</v>
       </c>
       <c r="I12">
-        <v>13.44971607987994</v>
+        <v>2.503076708552623</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.04106561248423</v>
       </c>
       <c r="K12">
-        <v>16.49465566793415</v>
+        <v>13.02385680749503</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.92555523322924</v>
       </c>
       <c r="N12">
-        <v>10.38168736457432</v>
+        <v>6.263096551937333</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.39737975528672</v>
+      </c>
+      <c r="Q12">
+        <v>12.42706175540472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.99374808348093</v>
+        <v>15.27129881057332</v>
       </c>
       <c r="C13">
-        <v>11.87996843220722</v>
+        <v>8.990186718093279</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.21198628963079</v>
+        <v>7.164455584545569</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>30.26950569883445</v>
+        <v>16.52859700080948</v>
       </c>
       <c r="H13">
-        <v>9.33097840316873</v>
+        <v>5.521612868355124</v>
       </c>
       <c r="I13">
-        <v>13.44663939328807</v>
+        <v>2.531011092748334</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.919523764635829</v>
       </c>
       <c r="K13">
-        <v>16.45086517777001</v>
+        <v>12.75112680395983</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.84815126380618</v>
       </c>
       <c r="N13">
-        <v>10.39792569775581</v>
+        <v>5.495713218252941</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.49426714654469</v>
+      </c>
+      <c r="Q13">
+        <v>12.10171651544904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.83173760294367</v>
+        <v>14.88703209358921</v>
       </c>
       <c r="C14">
-        <v>11.77016562131492</v>
+        <v>9.139528897324636</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.81586158373275</v>
+        <v>6.8657151575481</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>30.05923357301526</v>
+        <v>15.95151946717519</v>
       </c>
       <c r="H14">
-        <v>9.319749387281682</v>
+        <v>6.538796822546676</v>
       </c>
       <c r="I14">
-        <v>13.43725773821298</v>
+        <v>2.566850282299806</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.849827890407251</v>
       </c>
       <c r="K14">
-        <v>16.30746217705173</v>
+        <v>12.60146941668594</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.72017751764615</v>
       </c>
       <c r="N14">
-        <v>10.45087675432824</v>
+        <v>5.020005827107885</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.57730490998668</v>
+      </c>
+      <c r="Q14">
+        <v>11.90153032684265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.7319436979883</v>
+        <v>14.74018982487346</v>
       </c>
       <c r="C15">
-        <v>11.70259583588861</v>
+        <v>9.170823314161256</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.57234736127342</v>
+        <v>6.818938992718425</v>
       </c>
       <c r="F15">
-        <v>38.96319309154519</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>29.93109572005095</v>
+        <v>15.81794134127985</v>
       </c>
       <c r="H15">
-        <v>9.313145215432945</v>
+        <v>6.774285202294951</v>
       </c>
       <c r="I15">
-        <v>13.43200652411556</v>
+        <v>2.587028231343825</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.838806384561428</v>
       </c>
       <c r="K15">
-        <v>16.21916648394151</v>
+        <v>12.57831099809191</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.6538665599571</v>
       </c>
       <c r="N15">
-        <v>10.48330805879951</v>
+        <v>4.914803712434197</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.60307727233969</v>
+      </c>
+      <c r="Q15">
+        <v>11.86221433345168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.15143532557775</v>
+        <v>14.28537568250338</v>
       </c>
       <c r="C16">
-        <v>11.31051100775494</v>
+        <v>9.052479514215227</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.16297270721084</v>
+        <v>6.832191500049024</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>29.20682723776213</v>
+        <v>15.96184232631</v>
       </c>
       <c r="H16">
-        <v>9.279380524212954</v>
+        <v>6.562855157974525</v>
       </c>
       <c r="I16">
-        <v>13.40927061259122</v>
+        <v>2.661427032382515</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.906078739424808</v>
       </c>
       <c r="K16">
-        <v>15.70610111648451</v>
+        <v>12.71420713167895</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.31768948433123</v>
       </c>
       <c r="N16">
-        <v>10.66918136566959</v>
+        <v>4.923247011505294</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.6356019151183</v>
+      </c>
+      <c r="Q16">
+        <v>11.97868303955002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.78752753416501</v>
+        <v>14.14363303518177</v>
       </c>
       <c r="C17">
-        <v>11.06554942544061</v>
+        <v>8.878331114172665</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.28549108122627</v>
+        <v>6.969030449239082</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>28.77139832253248</v>
+        <v>16.37387053548895</v>
       </c>
       <c r="H17">
-        <v>9.26218293394882</v>
+        <v>5.826698310716032</v>
       </c>
       <c r="I17">
-        <v>13.40163509844288</v>
+        <v>2.700300493973697</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.994110511289751</v>
       </c>
       <c r="K17">
-        <v>15.38496308763987</v>
+        <v>12.8942723089724</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.12567140709058</v>
       </c>
       <c r="N17">
-        <v>10.78329637710854</v>
+        <v>5.170292832717144</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.61797903477837</v>
+      </c>
+      <c r="Q17">
+        <v>12.17208993198605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.57532438036775</v>
+        <v>14.27465970319689</v>
       </c>
       <c r="C18">
-        <v>10.92299372241791</v>
+        <v>8.643859990103307</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.77587346271843</v>
+        <v>7.392946719030726</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>28.52419356899794</v>
+        <v>17.09099040960461</v>
       </c>
       <c r="H18">
-        <v>9.25353434075771</v>
+        <v>4.578555082190329</v>
       </c>
       <c r="I18">
-        <v>13.39946452264841</v>
+        <v>2.700154014453056</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.114211272608353</v>
       </c>
       <c r="K18">
-        <v>15.19787774923692</v>
+        <v>13.15173500118275</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.04117925816319</v>
       </c>
       <c r="N18">
-        <v>10.84899027453663</v>
+        <v>5.720286045254208</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.55900174926733</v>
+      </c>
+      <c r="Q18">
+        <v>12.46524739842264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.50297621599779</v>
+        <v>14.59003907383272</v>
       </c>
       <c r="C19">
-        <v>10.87443873573664</v>
+        <v>8.423668909578714</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.60246531985143</v>
+        <v>8.20367292543839</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>28.44104935836071</v>
+        <v>17.97535563480345</v>
       </c>
       <c r="H19">
-        <v>9.250814974238446</v>
+        <v>3.10321330640262</v>
       </c>
       <c r="I19">
-        <v>13.39910188009662</v>
+        <v>2.686698008649925</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.248073386574209</v>
       </c>
       <c r="K19">
-        <v>15.13412347501139</v>
+        <v>13.4564558767036</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.05070757566521</v>
       </c>
       <c r="N19">
-        <v>10.87124539760636</v>
+        <v>6.545992404308586</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.48443953984182</v>
+      </c>
+      <c r="Q19">
+        <v>12.80953538858837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.82656484958683</v>
+        <v>15.4314642577821</v>
       </c>
       <c r="C20">
-        <v>11.09179713435637</v>
+        <v>8.214246991624304</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.37940505146074</v>
+        <v>9.869328806362363</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>28.81741443865652</v>
+        <v>19.36735964124935</v>
       </c>
       <c r="H20">
-        <v>9.263883905337378</v>
+        <v>1.570559031693158</v>
       </c>
       <c r="I20">
-        <v>13.40221583099317</v>
+        <v>2.599821121618179</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.426958832809399</v>
       </c>
       <c r="K20">
-        <v>15.41939401716884</v>
+        <v>13.90509685799568</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.32250608356346</v>
       </c>
       <c r="N20">
-        <v>10.7711432034135</v>
+        <v>7.996954074348826</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.35097784911032</v>
+      </c>
+      <c r="Q20">
+        <v>13.3140833804021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.87944005875753</v>
+        <v>16.39911426107469</v>
       </c>
       <c r="C21">
-        <v>11.80248227052956</v>
+        <v>8.31718698195926</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.93239452158728</v>
+        <v>10.29840635049918</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>30.12085786979499</v>
+        <v>19.63656007873129</v>
       </c>
       <c r="H21">
-        <v>9.322990252236043</v>
+        <v>1.757701651916202</v>
       </c>
       <c r="I21">
-        <v>13.43990956556588</v>
+        <v>2.557290557671207</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.384032963101411</v>
       </c>
       <c r="K21">
-        <v>16.34967822324209</v>
+        <v>13.84487959159638</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.95481754088769</v>
       </c>
       <c r="N21">
-        <v>10.4353244766213</v>
+        <v>8.409262363785555</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.22719695680295</v>
+      </c>
+      <c r="Q21">
+        <v>13.31293393829025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.54250052231036</v>
+        <v>16.99048324839326</v>
       </c>
       <c r="C22">
-        <v>12.25288545720793</v>
+        <v>8.386748326311064</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.56119569909855</v>
+        <v>10.49758782248179</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>31.00220108566666</v>
+        <v>19.78979455424087</v>
       </c>
       <c r="H22">
-        <v>9.373746711708071</v>
+        <v>1.875291970026077</v>
       </c>
       <c r="I22">
-        <v>13.48644644364766</v>
+        <v>2.63847981761807</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.353510289693332</v>
       </c>
       <c r="K22">
-        <v>16.93713312242441</v>
+        <v>13.79848907132949</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.34823151043985</v>
       </c>
       <c r="N22">
-        <v>10.21579524003397</v>
+        <v>8.603830020458442</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.1502034294082</v>
+      </c>
+      <c r="Q22">
+        <v>13.30492684233239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.1908688160441</v>
+        <v>16.69125176773825</v>
       </c>
       <c r="C23">
-        <v>12.01374711481791</v>
+        <v>8.343112046325698</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.69529886765078</v>
+        <v>10.39914984730436</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>30.52907767339613</v>
+        <v>19.73810620680116</v>
       </c>
       <c r="H23">
-        <v>9.345494892733116</v>
+        <v>1.813601117117321</v>
       </c>
       <c r="I23">
-        <v>13.45949969219214</v>
+        <v>2.589770433551552</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.374370011552781</v>
       </c>
       <c r="K23">
-        <v>16.62544446721825</v>
+        <v>13.83620549788555</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.14014004527025</v>
       </c>
       <c r="N23">
-        <v>10.33299633398753</v>
+        <v>8.498940616093208</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.18913498961665</v>
+      </c>
+      <c r="Q23">
+        <v>13.32109364277017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.80892539292726</v>
+        <v>15.47878041368218</v>
       </c>
       <c r="C24">
-        <v>11.07993592268484</v>
+        <v>8.187079322237976</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.33696260357006</v>
+        <v>10.00433122948033</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>28.79660081143354</v>
+        <v>19.51547374469177</v>
       </c>
       <c r="H24">
-        <v>9.263111050003948</v>
+        <v>1.572988179852901</v>
       </c>
       <c r="I24">
-        <v>13.40194639279189</v>
+        <v>2.578272955459184</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.450419257315769</v>
       </c>
       <c r="K24">
-        <v>15.40383545898877</v>
+        <v>13.96507591081807</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.31848001901936</v>
       </c>
       <c r="N24">
-        <v>10.77663737416093</v>
+        <v>8.092879858882212</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.34364693433589</v>
+      </c>
+      <c r="Q24">
+        <v>13.37376828382459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.20733584918247</v>
+        <v>14.0475639995998</v>
       </c>
       <c r="C25">
-        <v>10.0088783303507</v>
+        <v>8.0152049212239</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.52480942163136</v>
+        <v>9.558311975786578</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>27.05175767992142</v>
+        <v>19.32423258657064</v>
       </c>
       <c r="H25">
-        <v>9.22119733660514</v>
+        <v>1.826576232812359</v>
       </c>
       <c r="I25">
-        <v>13.42364114699317</v>
+        <v>2.783664545693402</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.542449181958119</v>
       </c>
       <c r="K25">
-        <v>13.99507875316565</v>
+        <v>14.12011082531982</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.36270310249914</v>
       </c>
       <c r="N25">
-        <v>11.25765129654422</v>
+        <v>7.632076019673169</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.51799920665705</v>
+      </c>
+      <c r="Q25">
+        <v>13.4542723642936</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.94579404754182</v>
+        <v>12.79517698757714</v>
       </c>
       <c r="C2">
-        <v>7.870021978504862</v>
+        <v>7.547647765151906</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.234331892093147</v>
+        <v>9.101803343691483</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>19.30135768045848</v>
+        <v>18.10335464686924</v>
       </c>
       <c r="H2">
-        <v>2.040825964853216</v>
+        <v>1.962873940005844</v>
       </c>
       <c r="I2">
-        <v>2.917706924855642</v>
+        <v>2.81990237425223</v>
       </c>
       <c r="J2">
-        <v>8.630101362747986</v>
+        <v>8.893789127237953</v>
       </c>
       <c r="K2">
-        <v>14.27975705239945</v>
+        <v>13.89190916533823</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.66266305360824</v>
       </c>
       <c r="M2">
-        <v>10.60153856806238</v>
+        <v>8.854368614051038</v>
       </c>
       <c r="N2">
-        <v>7.270645689345844</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.61213380827641</v>
       </c>
       <c r="P2">
-        <v>12.64945868548276</v>
+        <v>7.355180294763279</v>
       </c>
       <c r="Q2">
-        <v>13.56286783300685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.57710319316012</v>
+      </c>
+      <c r="S2">
+        <v>13.29640730980426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.12904553640368</v>
+        <v>11.98748047195589</v>
       </c>
       <c r="C3">
-        <v>7.778343932439757</v>
+        <v>7.418107087934371</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.994557467307519</v>
+        <v>8.881013468387666</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>19.26368625447996</v>
+        <v>18.14002048356276</v>
       </c>
       <c r="H3">
-        <v>2.194658019138712</v>
+        <v>2.10734028951327</v>
       </c>
       <c r="I3">
-        <v>3.030417942543318</v>
+        <v>2.920725945419761</v>
       </c>
       <c r="J3">
-        <v>8.687579430409031</v>
+        <v>8.929286275877747</v>
       </c>
       <c r="K3">
-        <v>14.37683456864093</v>
+        <v>14.00124858986084</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.81447637495833</v>
       </c>
       <c r="M3">
-        <v>10.0495415625635</v>
+        <v>8.904382346038533</v>
       </c>
       <c r="N3">
-        <v>7.017930270303658</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.06456767120851</v>
       </c>
       <c r="P3">
-        <v>12.74484874000913</v>
+        <v>7.105025222427209</v>
       </c>
       <c r="Q3">
-        <v>13.62977036084183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.65921186273425</v>
+      </c>
+      <c r="S3">
+        <v>13.37775501330402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.59633248761594</v>
+        <v>11.45885990257093</v>
       </c>
       <c r="C4">
-        <v>7.721173705806383</v>
+        <v>7.337931420570146</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.842865248931957</v>
+        <v>8.741162337583972</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.24982940443972</v>
+        <v>18.17239601849039</v>
       </c>
       <c r="H4">
-        <v>2.292837317338814</v>
+        <v>2.199574570028127</v>
       </c>
       <c r="I4">
-        <v>3.10315162043877</v>
+        <v>2.986109365247248</v>
       </c>
       <c r="J4">
-        <v>8.724976282944912</v>
+        <v>8.952031590207438</v>
       </c>
       <c r="K4">
-        <v>14.43949478090209</v>
+        <v>14.07060582605436</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.91124128626477</v>
       </c>
       <c r="M4">
-        <v>9.693511809651731</v>
+        <v>8.950865621410776</v>
       </c>
       <c r="N4">
-        <v>6.858267145313958</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.711484498043296</v>
       </c>
       <c r="P4">
-        <v>12.80544320840406</v>
+        <v>6.947278973333229</v>
       </c>
       <c r="Q4">
-        <v>13.67541873607791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.71191869712876</v>
+      </c>
+      <c r="S4">
+        <v>13.43142754670267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.36643765724646</v>
+        <v>11.23025695989733</v>
       </c>
       <c r="C5">
-        <v>7.699145442005917</v>
+        <v>7.307041292414143</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.777727731392105</v>
+        <v>8.680892226216368</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.23811858743972</v>
+        <v>18.17953991565606</v>
       </c>
       <c r="H5">
-        <v>2.334075276050163</v>
+        <v>2.238335485254529</v>
       </c>
       <c r="I5">
-        <v>3.136468133655532</v>
+        <v>3.016905054601638</v>
       </c>
       <c r="J5">
-        <v>8.739492585502362</v>
+        <v>8.960263036811376</v>
       </c>
       <c r="K5">
-        <v>14.46234898241955</v>
+        <v>14.09603832630757</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.94805594372423</v>
       </c>
       <c r="M5">
-        <v>9.544080027932782</v>
+        <v>8.972213737267777</v>
       </c>
       <c r="N5">
-        <v>6.792601655383902</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.563318590219314</v>
       </c>
       <c r="P5">
-        <v>12.83089238571926</v>
+        <v>6.882482661052753</v>
       </c>
       <c r="Q5">
-        <v>13.69192123236028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.73426496574206</v>
+      </c>
+      <c r="S5">
+        <v>13.45100697198584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.32168616729579</v>
+        <v>11.18575539997842</v>
       </c>
       <c r="C6">
-        <v>7.69732912327795</v>
+        <v>7.304302921791928</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.764090867514989</v>
+        <v>8.668071464517261</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.22613045097792</v>
+        <v>18.17057414555492</v>
       </c>
       <c r="H6">
-        <v>2.341325511553991</v>
+        <v>2.245165682050231</v>
       </c>
       <c r="I6">
-        <v>3.145637841824068</v>
+        <v>3.026298425422356</v>
       </c>
       <c r="J6">
-        <v>8.740412474987032</v>
+        <v>8.960086280431124</v>
       </c>
       <c r="K6">
-        <v>14.46199180539952</v>
+        <v>14.09616356173839</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.94994346221499</v>
       </c>
       <c r="M6">
-        <v>9.518852319093602</v>
+        <v>8.974130845239056</v>
       </c>
       <c r="N6">
-        <v>6.782196743702906</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.538310564048425</v>
       </c>
       <c r="P6">
-        <v>12.83545995806529</v>
+        <v>6.872225238966924</v>
       </c>
       <c r="Q6">
-        <v>13.69079396278836</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.7383795086569</v>
+      </c>
+      <c r="S6">
+        <v>13.45039697180046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.5769761444906</v>
+        <v>11.43661503416048</v>
       </c>
       <c r="C7">
-        <v>7.725966777906387</v>
+        <v>7.341785606934048</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.834540260670531</v>
+        <v>8.733977238515246</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.22191284633087</v>
+        <v>18.20788740744015</v>
       </c>
       <c r="H7">
-        <v>2.294314287338273</v>
+        <v>2.201432284746988</v>
       </c>
       <c r="I7">
-        <v>3.113059284773461</v>
+        <v>2.998114736134921</v>
       </c>
       <c r="J7">
-        <v>8.721023298036986</v>
+        <v>8.92293041787876</v>
       </c>
       <c r="K7">
-        <v>14.4283502763647</v>
+        <v>14.05554520375482</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.89619504506225</v>
       </c>
       <c r="M7">
-        <v>9.691078657836627</v>
+        <v>8.943646649153468</v>
       </c>
       <c r="N7">
-        <v>6.858905866571891</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.705187820392961</v>
       </c>
       <c r="P7">
-        <v>12.80669349851337</v>
+        <v>6.947283001956659</v>
       </c>
       <c r="Q7">
-        <v>13.66490575360953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.71387170939542</v>
+      </c>
+      <c r="S7">
+        <v>13.41446734856145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.65076222445035</v>
+        <v>12.49433262135577</v>
       </c>
       <c r="C8">
-        <v>7.845480102069388</v>
+        <v>7.504466531410007</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.143134073753348</v>
+        <v>9.020666514148241</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>19.24997177823835</v>
+        <v>18.28948310842347</v>
       </c>
       <c r="H8">
-        <v>2.094243707042533</v>
+        <v>2.014400924156881</v>
       </c>
       <c r="I8">
-        <v>2.967868943925891</v>
+        <v>2.869491421460121</v>
       </c>
       <c r="J8">
-        <v>8.644032057897709</v>
+        <v>8.819595379062797</v>
       </c>
       <c r="K8">
-        <v>14.29751468615333</v>
+        <v>13.90090064515523</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.68842133556174</v>
       </c>
       <c r="M8">
-        <v>10.41427565345113</v>
+        <v>8.851218312419212</v>
       </c>
       <c r="N8">
-        <v>7.186442702704062</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.41421552168507</v>
       </c>
       <c r="P8">
-        <v>12.68339031976829</v>
+        <v>7.269782606417889</v>
       </c>
       <c r="Q8">
-        <v>13.57083720989806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.60894624503148</v>
+      </c>
+      <c r="S8">
+        <v>13.28805963822087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.5698179828403</v>
+        <v>14.34714387568203</v>
       </c>
       <c r="C9">
-        <v>8.063883223342621</v>
+        <v>7.814436991547416</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.723149086420424</v>
+        <v>9.555552081341782</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>19.43087329748478</v>
+        <v>18.34763254716313</v>
       </c>
       <c r="H9">
-        <v>1.729539561688046</v>
+        <v>1.672241165635362</v>
       </c>
       <c r="I9">
-        <v>2.69547107965905</v>
+        <v>2.624882039878596</v>
       </c>
       <c r="J9">
-        <v>8.517473245485389</v>
+        <v>8.7192821336312</v>
       </c>
       <c r="K9">
-        <v>14.08611760431815</v>
+        <v>13.65033693623954</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.3419711409211</v>
       </c>
       <c r="M9">
-        <v>11.69448825701185</v>
+        <v>8.816293601848752</v>
       </c>
       <c r="N9">
-        <v>7.787682546248337</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11.68260570338307</v>
       </c>
       <c r="P9">
-        <v>12.45571891758159</v>
+        <v>7.866087037424807</v>
       </c>
       <c r="Q9">
-        <v>13.44315240083196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.41712394810324</v>
+      </c>
+      <c r="S9">
+        <v>13.11350696569852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.77986426753005</v>
+        <v>15.48665688422411</v>
       </c>
       <c r="C10">
-        <v>8.242523400827807</v>
+        <v>8.051597767857915</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.957051403563561</v>
+        <v>9.767465768593873</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>19.47022977488326</v>
+        <v>18.68617825689796</v>
       </c>
       <c r="H10">
-        <v>1.63468500985814</v>
+        <v>1.673518147478301</v>
       </c>
       <c r="I10">
-        <v>2.522748287070508</v>
+        <v>2.507615304113255</v>
       </c>
       <c r="J10">
-        <v>8.413976332557601</v>
+        <v>8.502035014408548</v>
       </c>
       <c r="K10">
-        <v>13.8922485376897</v>
+        <v>13.40774745160196</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.05613820097257</v>
       </c>
       <c r="M10">
-        <v>12.53992855288563</v>
+        <v>8.808064948416531</v>
       </c>
       <c r="N10">
-        <v>8.072177509370674</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12.50231237220942</v>
       </c>
       <c r="P10">
-        <v>12.30769229107315</v>
+        <v>8.145003517510457</v>
       </c>
       <c r="Q10">
-        <v>13.31792595236003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.30359747193259</v>
+      </c>
+      <c r="S10">
+        <v>12.91774309100322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.84196002799087</v>
+        <v>15.53877567392568</v>
       </c>
       <c r="C11">
-        <v>8.532826116998894</v>
+        <v>8.364945004724376</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.740002838254641</v>
+        <v>8.580769232694854</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>18.32907355560462</v>
+        <v>18.38615663172153</v>
       </c>
       <c r="H11">
-        <v>2.639581146525645</v>
+        <v>2.645507446925242</v>
       </c>
       <c r="I11">
-        <v>2.5043933220963</v>
+        <v>2.551808699025388</v>
       </c>
       <c r="J11">
-        <v>8.195982767075098</v>
+        <v>8.114612466313984</v>
       </c>
       <c r="K11">
-        <v>13.38028125864901</v>
+        <v>12.90637958160882</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.67675591312408</v>
       </c>
       <c r="M11">
-        <v>12.84196778233599</v>
+        <v>8.460812412791867</v>
       </c>
       <c r="N11">
-        <v>7.099359398517767</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>12.76394201343171</v>
       </c>
       <c r="P11">
-        <v>12.33258980439775</v>
+        <v>7.162047627471391</v>
       </c>
       <c r="Q11">
-        <v>12.81031561576962</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.36472559641661</v>
+      </c>
+      <c r="S11">
+        <v>12.37124416145441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.66570783279731</v>
+        <v>15.37702171880394</v>
       </c>
       <c r="C12">
-        <v>8.772036739474768</v>
+        <v>8.60418279488845</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.837181777845262</v>
+        <v>7.703059347430437</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>17.39701671896605</v>
+        <v>17.84550495599535</v>
       </c>
       <c r="H12">
-        <v>4.075240705772586</v>
+        <v>4.063194544299347</v>
       </c>
       <c r="I12">
-        <v>2.503076708552623</v>
+        <v>2.55145059226768</v>
       </c>
       <c r="J12">
-        <v>8.04106561248423</v>
+        <v>7.951379345063601</v>
       </c>
       <c r="K12">
-        <v>13.02385680749503</v>
+        <v>12.5865314482534</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.4642995078917</v>
       </c>
       <c r="M12">
-        <v>12.92555523322924</v>
+        <v>8.196863117647538</v>
       </c>
       <c r="N12">
-        <v>6.263096551937333</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>12.82947619608684</v>
       </c>
       <c r="P12">
-        <v>12.39737975528672</v>
+        <v>6.320455262871016</v>
       </c>
       <c r="Q12">
-        <v>12.42706175540472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.44869239595488</v>
+      </c>
+      <c r="S12">
+        <v>11.99773101475334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.27129881057332</v>
+        <v>15.02332057138292</v>
       </c>
       <c r="C13">
-        <v>8.990186718093279</v>
+        <v>8.81989443677676</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.164455584545569</v>
+        <v>7.053437069458925</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>16.52859700080948</v>
+        <v>16.87707468668912</v>
       </c>
       <c r="H13">
-        <v>5.521612868355124</v>
+        <v>5.511491827798343</v>
       </c>
       <c r="I13">
-        <v>2.531011092748334</v>
+        <v>2.525320995971081</v>
       </c>
       <c r="J13">
-        <v>7.919523764635829</v>
+        <v>7.913857102889637</v>
       </c>
       <c r="K13">
-        <v>12.75112680395983</v>
+        <v>12.37389865111117</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.33925839853637</v>
       </c>
       <c r="M13">
-        <v>12.84815126380618</v>
+        <v>7.983500130857143</v>
       </c>
       <c r="N13">
-        <v>5.495713218252941</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>12.75760700197697</v>
       </c>
       <c r="P13">
-        <v>12.49426714654469</v>
+        <v>5.552536120262218</v>
       </c>
       <c r="Q13">
-        <v>12.10171651544904</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.54575869060801</v>
+      </c>
+      <c r="S13">
+        <v>11.72967834891707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.88703209358921</v>
+        <v>14.6798117732705</v>
       </c>
       <c r="C14">
-        <v>9.139528897324636</v>
+        <v>8.967780091831536</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.8657151575481</v>
+        <v>6.771608129323564</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>15.95151946717519</v>
+        <v>16.02889276414243</v>
       </c>
       <c r="H14">
-        <v>6.538796822546676</v>
+        <v>6.528937340178937</v>
       </c>
       <c r="I14">
-        <v>2.566850282299806</v>
+        <v>2.52411310486425</v>
       </c>
       <c r="J14">
-        <v>7.849827890407251</v>
+        <v>7.927286983965702</v>
       </c>
       <c r="K14">
-        <v>12.60146941668594</v>
+        <v>12.2715457199135</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.28395581590631</v>
       </c>
       <c r="M14">
-        <v>12.72017751764615</v>
+        <v>7.861777111317002</v>
       </c>
       <c r="N14">
-        <v>5.020005827107885</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>12.64394209354876</v>
       </c>
       <c r="P14">
-        <v>12.57730490998668</v>
+        <v>5.07860348648928</v>
       </c>
       <c r="Q14">
-        <v>11.90153032684265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.61890872780464</v>
+      </c>
+      <c r="S14">
+        <v>11.58619434517667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.74018982487346</v>
+        <v>14.54824057174753</v>
       </c>
       <c r="C15">
-        <v>9.170823314161256</v>
+        <v>9.000215118918751</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.818938992718425</v>
+        <v>6.729602314008794</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>15.81794134127985</v>
+        <v>15.74962846821337</v>
       </c>
       <c r="H15">
-        <v>6.774285202294951</v>
+        <v>6.764150652780346</v>
       </c>
       <c r="I15">
-        <v>2.587028231343825</v>
+        <v>2.542694843498915</v>
       </c>
       <c r="J15">
-        <v>7.838806384561428</v>
+        <v>7.94810379554642</v>
       </c>
       <c r="K15">
-        <v>12.57831099809191</v>
+        <v>12.2624355526772</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.28073682852641</v>
       </c>
       <c r="M15">
-        <v>12.6538665599571</v>
+        <v>7.841099765429176</v>
       </c>
       <c r="N15">
-        <v>4.914803712434197</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.58565575289317</v>
       </c>
       <c r="P15">
-        <v>12.60307727233969</v>
+        <v>4.974690685296982</v>
       </c>
       <c r="Q15">
-        <v>11.86221433345168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.63827116961664</v>
+      </c>
+      <c r="S15">
+        <v>11.56764587536276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.28537568250338</v>
+        <v>14.13871059389917</v>
       </c>
       <c r="C16">
-        <v>9.052479514215227</v>
+        <v>8.890344622694393</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.832191500049024</v>
+        <v>6.747519805801304</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>15.96184232631</v>
+        <v>15.2669167960304</v>
       </c>
       <c r="H16">
-        <v>6.562855157974525</v>
+        <v>6.549244630957245</v>
       </c>
       <c r="I16">
-        <v>2.661427032382515</v>
+        <v>2.60643504184148</v>
       </c>
       <c r="J16">
-        <v>7.906078739424808</v>
+        <v>8.136373276411605</v>
       </c>
       <c r="K16">
-        <v>12.71420713167895</v>
+        <v>12.4212601788101</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.3889163356411</v>
       </c>
       <c r="M16">
-        <v>12.31768948433123</v>
+        <v>7.933059097216004</v>
       </c>
       <c r="N16">
-        <v>4.923247011505294</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.28747013653119</v>
       </c>
       <c r="P16">
-        <v>12.6356019151183</v>
+        <v>4.99072357384499</v>
       </c>
       <c r="Q16">
-        <v>11.97868303955002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.63822809330499</v>
+      </c>
+      <c r="S16">
+        <v>11.7430405974213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.14363303518177</v>
+        <v>14.00574656514785</v>
       </c>
       <c r="C17">
-        <v>8.878331114172665</v>
+        <v>8.716576407926279</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.969030449239082</v>
+        <v>6.876430427712013</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>16.37387053548895</v>
+        <v>15.4204065064357</v>
       </c>
       <c r="H17">
-        <v>5.826698310716032</v>
+        <v>5.809501024983821</v>
       </c>
       <c r="I17">
-        <v>2.700300493973697</v>
+        <v>2.640281886889843</v>
       </c>
       <c r="J17">
-        <v>7.994110511289751</v>
+        <v>8.279048729105064</v>
       </c>
       <c r="K17">
-        <v>12.8942723089724</v>
+        <v>12.59583639412031</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.51173549131934</v>
       </c>
       <c r="M17">
-        <v>12.12567140709058</v>
+        <v>8.05793077848919</v>
       </c>
       <c r="N17">
-        <v>5.170292832717144</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.1121248124527</v>
       </c>
       <c r="P17">
-        <v>12.61797903477837</v>
+        <v>5.242091094740542</v>
       </c>
       <c r="Q17">
-        <v>12.17208993198605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.60577914553561</v>
+      </c>
+      <c r="S17">
+        <v>11.94838341307765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.27465970319689</v>
+        <v>14.11957506446249</v>
       </c>
       <c r="C18">
-        <v>8.643859990103307</v>
+        <v>8.477750288947613</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.392946719030726</v>
+        <v>7.27960471680581</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>17.09099040960461</v>
+        <v>16.00178254424288</v>
       </c>
       <c r="H18">
-        <v>4.578555082190329</v>
+        <v>4.556163308601644</v>
       </c>
       <c r="I18">
-        <v>2.700154014453056</v>
+        <v>2.637053965000849</v>
       </c>
       <c r="J18">
-        <v>8.114211272608353</v>
+        <v>8.414697121569221</v>
       </c>
       <c r="K18">
-        <v>13.15173500118275</v>
+        <v>12.82727565667236</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.6800477423968</v>
       </c>
       <c r="M18">
-        <v>12.04117925816319</v>
+        <v>8.23735654519932</v>
       </c>
       <c r="N18">
-        <v>5.720286045254208</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.03426663029792</v>
       </c>
       <c r="P18">
-        <v>12.55900174926733</v>
+        <v>5.794615305831815</v>
       </c>
       <c r="Q18">
-        <v>12.46524739842264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.5403081619536</v>
+      </c>
+      <c r="S18">
+        <v>12.22636212635454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.59003907383272</v>
+        <v>14.40073343566468</v>
       </c>
       <c r="C19">
-        <v>8.423668909578714</v>
+        <v>8.249564968971958</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.20367292543839</v>
+        <v>8.061696551040571</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>17.97535563480345</v>
+        <v>16.80116408676595</v>
       </c>
       <c r="H19">
-        <v>3.10321330640262</v>
+        <v>3.072060643431275</v>
       </c>
       <c r="I19">
-        <v>2.686698008649925</v>
+        <v>2.626362401217953</v>
       </c>
       <c r="J19">
-        <v>8.248073386574209</v>
+        <v>8.540725098229252</v>
       </c>
       <c r="K19">
-        <v>13.4564558767036</v>
+        <v>13.09113651930807</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.87406212528582</v>
       </c>
       <c r="M19">
-        <v>12.05070757566521</v>
+        <v>8.449822430676067</v>
       </c>
       <c r="N19">
-        <v>6.545992404308586</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.04465318600737</v>
       </c>
       <c r="P19">
-        <v>12.48443953984182</v>
+        <v>6.62184722013072</v>
       </c>
       <c r="Q19">
-        <v>12.80953538858837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.46342441896476</v>
+      </c>
+      <c r="S19">
+        <v>12.53810517982751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.4314642577821</v>
+        <v>15.16506158018192</v>
       </c>
       <c r="C20">
-        <v>8.214246991624304</v>
+        <v>8.022592079873688</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.869328806362363</v>
+        <v>9.68202337709368</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>19.36735964124935</v>
+        <v>18.27123833739705</v>
       </c>
       <c r="H20">
-        <v>1.570559031693158</v>
+        <v>1.613104837626948</v>
       </c>
       <c r="I20">
-        <v>2.599821121618179</v>
+        <v>2.550845502462621</v>
       </c>
       <c r="J20">
-        <v>8.426958832809399</v>
+        <v>8.626172320753286</v>
       </c>
       <c r="K20">
-        <v>13.90509685799568</v>
+        <v>13.45027773898653</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.11447672160323</v>
       </c>
       <c r="M20">
-        <v>12.32250608356346</v>
+        <v>8.789008342865229</v>
       </c>
       <c r="N20">
-        <v>7.996954074348826</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.30282886359181</v>
       </c>
       <c r="P20">
-        <v>12.35097784911032</v>
+        <v>8.073043225531766</v>
       </c>
       <c r="Q20">
-        <v>13.3140833804021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.33527330453851</v>
+      </c>
+      <c r="S20">
+        <v>12.95716393379654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.39911426107469</v>
+        <v>16.03002846061258</v>
       </c>
       <c r="C21">
-        <v>8.31718698195926</v>
+        <v>8.121199556117034</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.29840635049918</v>
+        <v>10.10941115607579</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>19.63656007873129</v>
+        <v>20.02007733546884</v>
       </c>
       <c r="H21">
-        <v>1.757701651916202</v>
+        <v>1.783543571127125</v>
       </c>
       <c r="I21">
-        <v>2.557290557671207</v>
+        <v>2.602902075269711</v>
       </c>
       <c r="J21">
-        <v>8.384032963101411</v>
+        <v>8.134394870940353</v>
       </c>
       <c r="K21">
-        <v>13.84487959159638</v>
+        <v>13.26407372421535</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.90540325608743</v>
       </c>
       <c r="M21">
-        <v>12.95481754088769</v>
+        <v>8.796731301754923</v>
       </c>
       <c r="N21">
-        <v>8.409262363785555</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>12.85819765764243</v>
       </c>
       <c r="P21">
-        <v>12.22719695680295</v>
+        <v>8.472455699530336</v>
       </c>
       <c r="Q21">
-        <v>13.31293393829025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.25661968410153</v>
+      </c>
+      <c r="S21">
+        <v>12.76811148046119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.99048324839326</v>
+        <v>16.55682188795289</v>
       </c>
       <c r="C22">
-        <v>8.386748326311064</v>
+        <v>8.186353180463302</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.49758782248179</v>
+        <v>10.31201431710334</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>19.78979455424087</v>
+        <v>21.29362920450044</v>
       </c>
       <c r="H22">
-        <v>1.875291970026077</v>
+        <v>1.889307743726412</v>
       </c>
       <c r="I22">
-        <v>2.63847981761807</v>
+        <v>2.669373076335239</v>
       </c>
       <c r="J22">
-        <v>8.353510289693332</v>
+        <v>7.879054855116728</v>
       </c>
       <c r="K22">
-        <v>13.79848907132949</v>
+        <v>13.12978650638417</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.76606811752175</v>
       </c>
       <c r="M22">
-        <v>13.34823151043985</v>
+        <v>8.799004630939386</v>
       </c>
       <c r="N22">
-        <v>8.603830020458442</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.19954929722511</v>
       </c>
       <c r="P22">
-        <v>12.1502034294082</v>
+        <v>8.658314739332649</v>
       </c>
       <c r="Q22">
-        <v>13.30492684233239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.21271732532384</v>
+      </c>
+      <c r="S22">
+        <v>12.62687068891116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.69125176773825</v>
+        <v>16.29769935082622</v>
       </c>
       <c r="C23">
-        <v>8.343112046325698</v>
+        <v>8.148530809884875</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.39914984730436</v>
+        <v>10.20867015917358</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>19.73810620680116</v>
+        <v>20.45996626931798</v>
       </c>
       <c r="H23">
-        <v>1.813601117117321</v>
+        <v>1.834554475476367</v>
       </c>
       <c r="I23">
-        <v>2.589770433551552</v>
+        <v>2.627679531014337</v>
       </c>
       <c r="J23">
-        <v>8.374370011552781</v>
+        <v>8.042698406822419</v>
       </c>
       <c r="K23">
-        <v>13.83620549788555</v>
+        <v>13.22395237949288</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.85400522168448</v>
       </c>
       <c r="M23">
-        <v>13.14014004527025</v>
+        <v>8.817732621599321</v>
       </c>
       <c r="N23">
-        <v>8.498940616093208</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.02691271923394</v>
       </c>
       <c r="P23">
-        <v>12.18913498961665</v>
+        <v>8.559316865659152</v>
       </c>
       <c r="Q23">
-        <v>13.32109364277017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.23040772516803</v>
+      </c>
+      <c r="S23">
+        <v>12.73095981831575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.47878041368218</v>
+        <v>15.20952696396115</v>
       </c>
       <c r="C24">
-        <v>8.187079322237976</v>
+        <v>7.988808499407077</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.00433122948033</v>
+        <v>9.814251934914484</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>19.51547374469177</v>
+        <v>18.4020496748728</v>
       </c>
       <c r="H24">
-        <v>1.572988179852901</v>
+        <v>1.617602094807624</v>
       </c>
       <c r="I24">
-        <v>2.578272955459184</v>
+        <v>2.525669722453715</v>
       </c>
       <c r="J24">
-        <v>8.450419257315769</v>
+        <v>8.650830689890755</v>
       </c>
       <c r="K24">
-        <v>13.96507591081807</v>
+        <v>13.50455179840826</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.15468503191354</v>
       </c>
       <c r="M24">
-        <v>12.31848001901936</v>
+        <v>8.832001679901111</v>
       </c>
       <c r="N24">
-        <v>8.092879858882212</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.29932956043231</v>
       </c>
       <c r="P24">
-        <v>12.34364693433589</v>
+        <v>8.169322413850225</v>
       </c>
       <c r="Q24">
-        <v>13.37376828382459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.32624806721787</v>
+      </c>
+      <c r="S24">
+        <v>13.01347239168165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.0475639995998</v>
+        <v>13.85286279077205</v>
       </c>
       <c r="C25">
-        <v>8.0152049212239</v>
+        <v>7.747666759862589</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.558311975786578</v>
+        <v>9.40126300086823</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>19.32423258657064</v>
+        <v>18.18113101647861</v>
       </c>
       <c r="H25">
-        <v>1.826576232812359</v>
+        <v>1.76278054673044</v>
       </c>
       <c r="I25">
-        <v>2.783664545693402</v>
+        <v>2.708243071686625</v>
       </c>
       <c r="J25">
-        <v>8.542449181958119</v>
+        <v>8.772466820369102</v>
       </c>
       <c r="K25">
-        <v>14.12011082531982</v>
+        <v>13.70245945421876</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.42176193220803</v>
       </c>
       <c r="M25">
-        <v>11.36270310249914</v>
+        <v>8.801852494534126</v>
       </c>
       <c r="N25">
-        <v>7.632076019673169</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.35870473585147</v>
       </c>
       <c r="P25">
-        <v>12.51799920665705</v>
+        <v>7.712364595826476</v>
       </c>
       <c r="Q25">
-        <v>13.4542723642936</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.46880647596811</v>
+      </c>
+      <c r="S25">
+        <v>13.14782037155803</v>
       </c>
     </row>
   </sheetData>
